--- a/f500-domains.xlsx
+++ b/f500-domains.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13860" yWindow="4760" windowWidth="28800" windowHeight="20380" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="5020" yWindow="2600" windowWidth="28800" windowHeight="20380" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="f500-cleaned" sheetId="1" r:id="rId1"/>
     <sheet name="f1000-raw" sheetId="2" r:id="rId2"/>
     <sheet name="G500-raw" sheetId="3" r:id="rId3"/>
-    <sheet name="G500-proposed" sheetId="4" r:id="rId4"/>
+    <sheet name="g500-domains.csv" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'G500-raw'!$A$2:$K$503</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5907" uniqueCount="3372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5843" uniqueCount="3365">
   <si>
     <t>nk</t>
   </si>
@@ -9528,18 +9528,12 @@
     <t>sinopec.com</t>
   </si>
   <si>
-    <t>volkswagen.com</t>
-  </si>
-  <si>
     <t>compass.com</t>
   </si>
   <si>
     <t>gazprom.com</t>
   </si>
   <si>
-    <t>jardine.com</t>
-  </si>
-  <si>
     <t>sodexo.com</t>
   </si>
   <si>
@@ -9564,9 +9558,6 @@
     <t>hitachi.com</t>
   </si>
   <si>
-    <t>sberbank.com</t>
-  </si>
-  <si>
     <t>exor.com</t>
   </si>
   <si>
@@ -9579,30 +9570,18 @@
     <t>bosch.com</t>
   </si>
   <si>
-    <t>hutchison.com</t>
-  </si>
-  <si>
     <t>daimler.com</t>
   </si>
   <si>
     <t>hsbc.com</t>
   </si>
   <si>
-    <t>panasonic.com</t>
-  </si>
-  <si>
     <t>aeon.com</t>
   </si>
   <si>
-    <t>rosneft.com</t>
-  </si>
-  <si>
     <t>sncf.com</t>
   </si>
   <si>
-    <t>at&amp;t.com</t>
-  </si>
-  <si>
     <t>sumitomo.com</t>
   </si>
   <si>
@@ -9615,9 +9594,6 @@
     <t>arcelormittal.com</t>
   </si>
   <si>
-    <t>ansteel.com</t>
-  </si>
-  <si>
     <t>jbs.com</t>
   </si>
   <si>
@@ -9648,9 +9624,6 @@
     <t>onex.com</t>
   </si>
   <si>
-    <t>canon.com</t>
-  </si>
-  <si>
     <t>peugeot.com</t>
   </si>
   <si>
@@ -9666,15 +9639,9 @@
     <t>unilever.com</t>
   </si>
   <si>
-    <t>unitedhealth.com</t>
-  </si>
-  <si>
     <t>huawei.com</t>
   </si>
   <si>
-    <t>johnson.com</t>
-  </si>
-  <si>
     <t>schneider.com</t>
   </si>
   <si>
@@ -9792,9 +9759,6 @@
     <t>hna.com</t>
   </si>
   <si>
-    <t>lockheed.com</t>
-  </si>
-  <si>
     <t>itochu.com</t>
   </si>
   <si>
@@ -9819,9 +9783,6 @@
     <t>mondelez.com</t>
   </si>
   <si>
-    <t>vtb.com</t>
-  </si>
-  <si>
     <t>total.com</t>
   </si>
   <si>
@@ -9852,9 +9813,6 @@
     <t>alstom.com</t>
   </si>
   <si>
-    <t>intesa.com</t>
-  </si>
-  <si>
     <t>roche.com</t>
   </si>
   <si>
@@ -9873,9 +9831,6 @@
     <t>eni.com</t>
   </si>
   <si>
-    <t>exxon.com</t>
-  </si>
-  <si>
     <t>lg.com</t>
   </si>
   <si>
@@ -9921,9 +9876,6 @@
     <t>softbank.com</t>
   </si>
   <si>
-    <t>coop.com</t>
-  </si>
-  <si>
     <t>compal.com</t>
   </si>
   <si>
@@ -10002,18 +9954,12 @@
     <t>westpac.com</t>
   </si>
   <si>
-    <t>sompo.com</t>
-  </si>
-  <si>
     <t>bunge.com</t>
   </si>
   <si>
     <t>hanwha.com</t>
   </si>
   <si>
-    <t>indian.com</t>
-  </si>
-  <si>
     <t>vivendi.com</t>
   </si>
   <si>
@@ -10032,15 +9978,9 @@
     <t>manulife.com</t>
   </si>
   <si>
-    <t>exelon.com</t>
-  </si>
-  <si>
     <t>aegon.com</t>
   </si>
   <si>
-    <t>duke.com</t>
-  </si>
-  <si>
     <t>kddi.com</t>
   </si>
   <si>
@@ -10053,27 +9993,12 @@
     <t>pertamina.com</t>
   </si>
   <si>
-    <t>jx.com</t>
-  </si>
-  <si>
     <t>aviva.com</t>
   </si>
   <si>
-    <t>ptt.com</t>
-  </si>
-  <si>
-    <t>time.com</t>
-  </si>
-  <si>
     <t>omv.com</t>
   </si>
   <si>
-    <t>reliance.com</t>
-  </si>
-  <si>
-    <t>antarchile.com</t>
-  </si>
-  <si>
     <t>repsol.com</t>
   </si>
   <si>
@@ -10110,21 +10035,12 @@
     <t>ultrapar.com</t>
   </si>
   <si>
-    <t>unipol.com</t>
-  </si>
-  <si>
     <t>lyondellbasell.com</t>
   </si>
   <si>
-    <t>tiaa-cref.com</t>
-  </si>
-  <si>
     <t>chs.com</t>
   </si>
   <si>
-    <t>occidental.com</t>
-  </si>
-  <si>
     <t>ecopetrol.com</t>
   </si>
   <si>
@@ -10134,9 +10050,6 @@
     <t>idemitsu.com</t>
   </si>
   <si>
-    <t>tesoro.com</t>
-  </si>
-  <si>
     <t>trafigura.com</t>
   </si>
   <si>
@@ -10150,6 +10063,72 @@
   </si>
   <si>
     <t>gasterra.com</t>
+  </si>
+  <si>
+    <t>canon.jp</t>
+  </si>
+  <si>
+    <t>panasonic.co.jp</t>
+  </si>
+  <si>
+    <t>A.P. Moller-Maersk A/S</t>
+  </si>
+  <si>
+    <t>vtb.ru</t>
+  </si>
+  <si>
+    <t>credit-suisse.com</t>
+  </si>
+  <si>
+    <t>jardines.com</t>
+  </si>
+  <si>
+    <t>hutch.net</t>
+  </si>
+  <si>
+    <t>intesasanpaolo.com</t>
+  </si>
+  <si>
+    <t>iocl.com</t>
+  </si>
+  <si>
+    <t>rosneft.ru</t>
+  </si>
+  <si>
+    <t>sjnk.co.jp</t>
+  </si>
+  <si>
+    <t>antarchile.cl</t>
+  </si>
+  <si>
+    <t>unipol.it</t>
+  </si>
+  <si>
+    <t>ansteel.cn</t>
+  </si>
+  <si>
+    <t>pttplc.com</t>
+  </si>
+  <si>
+    <t>sberbank.ru</t>
+  </si>
+  <si>
+    <t>coop.ch</t>
+  </si>
+  <si>
+    <t>dzbank.de</t>
+  </si>
+  <si>
+    <t>Nestle</t>
+  </si>
+  <si>
+    <t>vw.com</t>
+  </si>
+  <si>
+    <t>relianceada.com</t>
+  </si>
+  <si>
+    <t>mhi.co.jp</t>
   </si>
 </sst>
 </file>
@@ -10805,8 +10784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C517"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="B258" sqref="B258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -46068,16 +46047,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J283"/>
+  <dimension ref="A1:J267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="C151" sqref="C151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -46114,7 +46094,7 @@
         <v>2473</v>
       </c>
       <c r="C2" t="s">
-        <v>3164</v>
+        <v>3362</v>
       </c>
       <c r="E2" t="s">
         <v>2475</v>
@@ -46166,7 +46146,7 @@
         <v>2998</v>
       </c>
       <c r="C4" t="s">
-        <v>3165</v>
+        <v>3164</v>
       </c>
       <c r="E4" t="s">
         <v>3000</v>
@@ -46192,7 +46172,7 @@
         <v>2505</v>
       </c>
       <c r="C5" t="s">
-        <v>3166</v>
+        <v>3165</v>
       </c>
       <c r="E5" t="s">
         <v>2506</v>
@@ -46218,7 +46198,7 @@
         <v>2834</v>
       </c>
       <c r="C6" t="s">
-        <v>3167</v>
+        <v>3348</v>
       </c>
       <c r="E6" t="s">
         <v>2583</v>
@@ -46244,7 +46224,7 @@
         <v>3073</v>
       </c>
       <c r="C7" t="s">
-        <v>3168</v>
+        <v>3166</v>
       </c>
       <c r="E7" t="s">
         <v>3074</v>
@@ -46270,7 +46250,7 @@
         <v>2557</v>
       </c>
       <c r="C8" t="s">
-        <v>3169</v>
+        <v>3167</v>
       </c>
       <c r="E8" t="s">
         <v>2558</v>
@@ -46296,7 +46276,7 @@
         <v>2561</v>
       </c>
       <c r="C9" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
       <c r="E9" t="s">
         <v>2562</v>
@@ -46322,7 +46302,7 @@
         <v>2559</v>
       </c>
       <c r="C10" t="s">
-        <v>3171</v>
+        <v>3169</v>
       </c>
       <c r="E10" t="s">
         <v>2516</v>
@@ -46348,7 +46328,7 @@
         <v>2476</v>
       </c>
       <c r="C11" t="s">
-        <v>3172</v>
+        <v>3170</v>
       </c>
       <c r="E11" t="s">
         <v>2477</v>
@@ -46374,7 +46354,7 @@
         <v>2673</v>
       </c>
       <c r="C12" t="s">
-        <v>3173</v>
+        <v>3171</v>
       </c>
       <c r="E12" t="s">
         <v>2497</v>
@@ -46397,7 +46377,7 @@
         <v>70</v>
       </c>
       <c r="B13" t="s">
-        <v>2570</v>
+        <v>3361</v>
       </c>
       <c r="C13" t="s">
         <v>3091</v>
@@ -46426,7 +46406,7 @@
         <v>2868</v>
       </c>
       <c r="C14" t="s">
-        <v>3174</v>
+        <v>3172</v>
       </c>
       <c r="E14" t="s">
         <v>2869</v>
@@ -46452,7 +46432,7 @@
         <v>2595</v>
       </c>
       <c r="C15" t="s">
-        <v>3175</v>
+        <v>3173</v>
       </c>
       <c r="E15" t="s">
         <v>2525</v>
@@ -46504,7 +46484,7 @@
         <v>2709</v>
       </c>
       <c r="C17" t="s">
-        <v>3176</v>
+        <v>3358</v>
       </c>
       <c r="E17" t="s">
         <v>2506</v>
@@ -46530,7 +46510,7 @@
         <v>2494</v>
       </c>
       <c r="C18" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="E18" t="s">
         <v>2495</v>
@@ -46556,7 +46536,7 @@
         <v>2483</v>
       </c>
       <c r="C19" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="E19" t="s">
         <v>2485</v>
@@ -46582,7 +46562,7 @@
         <v>2943</v>
       </c>
       <c r="C20" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="E20" t="s">
         <v>2944</v>
@@ -46608,7 +46588,7 @@
         <v>2675</v>
       </c>
       <c r="C21" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="E21" t="s">
         <v>2492</v>
@@ -46634,7 +46614,7 @@
         <v>2897</v>
       </c>
       <c r="C22" t="s">
-        <v>3181</v>
+        <v>3349</v>
       </c>
       <c r="E22" t="s">
         <v>2583</v>
@@ -46660,7 +46640,7 @@
         <v>2491</v>
       </c>
       <c r="C23" t="s">
-        <v>3182</v>
+        <v>3178</v>
       </c>
       <c r="E23" t="s">
         <v>2492</v>
@@ -46686,7 +46666,7 @@
         <v>2587</v>
       </c>
       <c r="C24" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
       <c r="E24" t="s">
         <v>2471</v>
@@ -46712,7 +46692,7 @@
         <v>2650</v>
       </c>
       <c r="C25" t="s">
-        <v>3184</v>
+        <v>3344</v>
       </c>
       <c r="E25" t="s">
         <v>2651</v>
@@ -46738,7 +46718,7 @@
         <v>2671</v>
       </c>
       <c r="C26" t="s">
-        <v>3185</v>
+        <v>3180</v>
       </c>
       <c r="E26" t="s">
         <v>2672</v>
@@ -46764,7 +46744,7 @@
         <v>2543</v>
       </c>
       <c r="C27" t="s">
-        <v>3186</v>
+        <v>3352</v>
       </c>
       <c r="E27" t="s">
         <v>2506</v>
@@ -46790,7 +46770,7 @@
         <v>2881</v>
       </c>
       <c r="C28" t="s">
-        <v>3187</v>
+        <v>3181</v>
       </c>
       <c r="E28" t="s">
         <v>2882</v>
@@ -46810,6631 +46790,6215 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>2563</v>
       </c>
       <c r="C29" t="s">
-        <v>3188</v>
+        <v>3093</v>
       </c>
       <c r="E29" t="s">
-        <v>2518</v>
+        <v>2525</v>
       </c>
       <c r="F29" t="s">
         <v>2517</v>
       </c>
       <c r="H29">
-        <v>132447</v>
+        <v>100913</v>
       </c>
       <c r="I29">
-        <v>6224</v>
+        <v>4711</v>
       </c>
       <c r="J29">
-        <v>243620</v>
+        <v>241600</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>65</v>
+        <v>461</v>
       </c>
       <c r="B30" t="s">
-        <v>2563</v>
+        <v>3049</v>
       </c>
       <c r="C30" t="s">
-        <v>3093</v>
+        <v>3182</v>
       </c>
       <c r="E30" t="s">
-        <v>2525</v>
+        <v>2651</v>
       </c>
       <c r="F30" t="s">
-        <v>2517</v>
+        <v>2560</v>
       </c>
       <c r="H30">
-        <v>100913</v>
+        <v>25674</v>
       </c>
       <c r="I30">
-        <v>4711</v>
+        <v>1089</v>
       </c>
       <c r="J30">
-        <v>241600</v>
+        <v>240798</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>461</v>
+        <v>364</v>
       </c>
       <c r="B31" t="s">
-        <v>3049</v>
+        <v>2931</v>
       </c>
       <c r="C31" t="s">
-        <v>3189</v>
+        <v>3183</v>
       </c>
       <c r="E31" t="s">
-        <v>2651</v>
+        <v>2932</v>
       </c>
       <c r="F31" t="s">
-        <v>2560</v>
+        <v>2464</v>
       </c>
       <c r="H31">
-        <v>25674</v>
+        <v>33163</v>
       </c>
       <c r="I31">
-        <v>1089</v>
+        <v>-419</v>
       </c>
       <c r="J31">
-        <v>240798</v>
+        <v>239625</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>364</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>2931</v>
+        <v>2604</v>
       </c>
       <c r="C32" t="s">
-        <v>3190</v>
+        <v>3184</v>
       </c>
       <c r="E32" t="s">
-        <v>2932</v>
+        <v>2500</v>
       </c>
       <c r="F32" t="s">
-        <v>2464</v>
+        <v>2511</v>
       </c>
       <c r="H32">
-        <v>33163</v>
+        <v>85505</v>
       </c>
       <c r="I32">
-        <v>-419</v>
+        <v>172</v>
       </c>
       <c r="J32">
-        <v>239625</v>
+        <v>227868</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B33" t="s">
-        <v>2604</v>
+        <v>2617</v>
       </c>
       <c r="C33" t="s">
-        <v>3191</v>
+        <v>3185</v>
       </c>
       <c r="E33" t="s">
-        <v>2500</v>
+        <v>2619</v>
       </c>
       <c r="F33" t="s">
-        <v>2511</v>
+        <v>2618</v>
       </c>
       <c r="H33">
-        <v>85505</v>
+        <v>79282</v>
       </c>
       <c r="I33">
-        <v>172</v>
+        <v>-1086</v>
       </c>
       <c r="J33">
-        <v>227868</v>
+        <v>222327</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>2813</v>
       </c>
       <c r="C34" t="s">
-        <v>3094</v>
+        <v>3118</v>
       </c>
       <c r="E34" t="s">
-        <v>2586</v>
+        <v>2814</v>
       </c>
       <c r="F34" t="s">
-        <v>2486</v>
+        <v>2464</v>
       </c>
       <c r="H34">
-        <v>95181</v>
+        <v>41829</v>
       </c>
       <c r="I34">
-        <v>4833</v>
+        <v>67</v>
       </c>
       <c r="J34">
-        <v>223715</v>
+        <v>222137</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>108</v>
+        <v>451</v>
       </c>
       <c r="B35" t="s">
-        <v>2617</v>
+        <v>3037</v>
       </c>
       <c r="C35" t="s">
-        <v>3192</v>
+        <v>3356</v>
       </c>
       <c r="E35" t="s">
-        <v>2619</v>
+        <v>3038</v>
       </c>
       <c r="F35" t="s">
         <v>2618</v>
       </c>
       <c r="H35">
-        <v>79282</v>
+        <v>26212</v>
       </c>
       <c r="I35">
-        <v>-1086</v>
+        <v>-1297</v>
       </c>
       <c r="J35">
-        <v>222327</v>
+        <v>218900</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>264</v>
+        <v>202</v>
       </c>
       <c r="B36" t="s">
-        <v>2813</v>
+        <v>2738</v>
       </c>
       <c r="C36" t="s">
-        <v>3118</v>
+        <v>3186</v>
       </c>
       <c r="E36" t="s">
-        <v>2814</v>
+        <v>2626</v>
       </c>
       <c r="F36" t="s">
-        <v>2464</v>
+        <v>2571</v>
       </c>
       <c r="H36">
-        <v>41829</v>
+        <v>51176</v>
       </c>
       <c r="I36">
-        <v>67</v>
+        <v>864</v>
       </c>
       <c r="J36">
-        <v>222137</v>
+        <v>216693</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>451</v>
+        <v>387</v>
       </c>
       <c r="B37" t="s">
-        <v>3037</v>
+        <v>2960</v>
       </c>
       <c r="C37" t="s">
-        <v>3193</v>
+        <v>3187</v>
       </c>
       <c r="E37" t="s">
-        <v>3038</v>
+        <v>2961</v>
       </c>
       <c r="F37" t="s">
-        <v>2618</v>
+        <v>2489</v>
       </c>
       <c r="H37">
-        <v>26212</v>
+        <v>30816</v>
       </c>
       <c r="I37">
-        <v>-1297</v>
+        <v>1415</v>
       </c>
       <c r="J37">
-        <v>218900</v>
+        <v>216275</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B38" t="s">
-        <v>2738</v>
+        <v>2730</v>
       </c>
       <c r="C38" t="s">
-        <v>3194</v>
+        <v>3188</v>
       </c>
       <c r="E38" t="s">
-        <v>2626</v>
+        <v>2465</v>
       </c>
       <c r="F38" t="s">
-        <v>2571</v>
+        <v>2464</v>
       </c>
       <c r="H38">
-        <v>51176</v>
+        <v>52731</v>
       </c>
       <c r="I38">
-        <v>864</v>
+        <v>4376</v>
       </c>
       <c r="J38">
-        <v>216693</v>
+        <v>212233</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="B39" t="s">
-        <v>2960</v>
+        <v>2941</v>
       </c>
       <c r="C39" t="s">
-        <v>3195</v>
+        <v>3119</v>
       </c>
       <c r="E39" t="s">
-        <v>2961</v>
+        <v>2942</v>
       </c>
       <c r="F39" t="s">
-        <v>2489</v>
+        <v>2464</v>
       </c>
       <c r="H39">
-        <v>30816</v>
+        <v>32551</v>
       </c>
       <c r="I39">
-        <v>1415</v>
+        <v>-170</v>
       </c>
       <c r="J39">
-        <v>216275</v>
+        <v>208829</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>196</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>2730</v>
+        <v>2534</v>
       </c>
       <c r="C40" t="s">
-        <v>3196</v>
+        <v>3189</v>
       </c>
       <c r="E40" t="s">
-        <v>2465</v>
+        <v>2525</v>
       </c>
       <c r="F40" t="s">
-        <v>2464</v>
+        <v>2474</v>
       </c>
       <c r="H40">
-        <v>52731</v>
+        <v>121221</v>
       </c>
       <c r="I40">
-        <v>4376</v>
+        <v>4633</v>
       </c>
       <c r="J40">
-        <v>212233</v>
+        <v>204730</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>373</v>
+        <v>171</v>
       </c>
       <c r="B41" t="s">
-        <v>2941</v>
+        <v>2701</v>
       </c>
       <c r="C41" t="s">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="E41" t="s">
-        <v>2942</v>
+        <v>2702</v>
       </c>
       <c r="F41" t="s">
-        <v>2464</v>
+        <v>2511</v>
       </c>
       <c r="H41">
-        <v>32551</v>
+        <v>57221</v>
       </c>
       <c r="I41">
-        <v>-170</v>
+        <v>2467</v>
       </c>
       <c r="J41">
-        <v>208829</v>
+        <v>203000</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="B42" t="s">
-        <v>2534</v>
+        <v>2685</v>
       </c>
       <c r="C42" t="s">
-        <v>3197</v>
+        <v>3190</v>
       </c>
       <c r="E42" t="s">
         <v>2525</v>
       </c>
       <c r="F42" t="s">
-        <v>2474</v>
+        <v>2560</v>
       </c>
       <c r="H42">
-        <v>121221</v>
-      </c>
-      <c r="I42">
-        <v>4633</v>
+        <v>63175</v>
+      </c>
+      <c r="I42" t="s">
+        <v>2686</v>
       </c>
       <c r="J42">
-        <v>204730</v>
+        <v>198741</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="B43" t="s">
-        <v>2701</v>
+        <v>2713</v>
       </c>
       <c r="C43" t="s">
-        <v>3120</v>
+        <v>3121</v>
       </c>
       <c r="E43" t="s">
-        <v>2702</v>
+        <v>2714</v>
       </c>
       <c r="F43" t="s">
         <v>2511</v>
       </c>
       <c r="H43">
-        <v>57221</v>
+        <v>55940</v>
       </c>
       <c r="I43">
-        <v>2467</v>
+        <v>2250</v>
       </c>
       <c r="J43">
-        <v>203000</v>
+        <v>198000</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="B44" t="s">
-        <v>2685</v>
+        <v>2620</v>
       </c>
       <c r="C44" t="s">
-        <v>3198</v>
+        <v>3191</v>
       </c>
       <c r="E44" t="s">
-        <v>2525</v>
+        <v>2621</v>
       </c>
       <c r="F44" t="s">
-        <v>2560</v>
+        <v>2474</v>
       </c>
       <c r="H44">
-        <v>63175</v>
-      </c>
-      <c r="I44" t="s">
-        <v>2686</v>
+        <v>78978</v>
+      </c>
+      <c r="I44">
+        <v>1600</v>
       </c>
       <c r="J44">
-        <v>198741</v>
+        <v>197192</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>181</v>
+        <v>277</v>
       </c>
       <c r="B45" t="s">
-        <v>2713</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>3121</v>
+        <v>3192</v>
       </c>
       <c r="E45" t="s">
-        <v>2714</v>
+        <v>2831</v>
       </c>
       <c r="F45" t="s">
-        <v>2511</v>
+        <v>2489</v>
       </c>
       <c r="H45">
-        <v>55940</v>
+        <v>40087</v>
       </c>
       <c r="I45">
-        <v>2250</v>
+        <v>1875</v>
       </c>
       <c r="J45">
-        <v>198000</v>
+        <v>197000</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>109</v>
+        <v>355</v>
       </c>
       <c r="B46" t="s">
-        <v>2620</v>
+        <v>2918</v>
       </c>
       <c r="C46" t="s">
-        <v>3199</v>
+        <v>3193</v>
       </c>
       <c r="E46" t="s">
-        <v>2621</v>
+        <v>2873</v>
       </c>
       <c r="F46" t="s">
-        <v>2474</v>
+        <v>2484</v>
       </c>
       <c r="H46">
-        <v>78978</v>
+        <v>33652</v>
       </c>
       <c r="I46">
-        <v>1600</v>
+        <v>483</v>
       </c>
       <c r="J46">
-        <v>197192</v>
+        <v>196251</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>2840</v>
       </c>
       <c r="C47" t="s">
-        <v>3200</v>
+        <v>3194</v>
       </c>
       <c r="E47" t="s">
-        <v>2831</v>
+        <v>2752</v>
       </c>
       <c r="F47" t="s">
-        <v>2489</v>
+        <v>2511</v>
       </c>
       <c r="H47">
-        <v>40087</v>
+        <v>39769</v>
       </c>
       <c r="I47">
-        <v>1875</v>
+        <v>114</v>
       </c>
       <c r="J47">
-        <v>197000</v>
+        <v>195000</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>355</v>
+        <v>490</v>
       </c>
       <c r="B48" t="s">
-        <v>2918</v>
+        <v>3080</v>
       </c>
       <c r="C48" t="s">
-        <v>3201</v>
+        <v>3195</v>
       </c>
       <c r="E48" t="s">
-        <v>2873</v>
+        <v>2752</v>
       </c>
       <c r="F48" t="s">
         <v>2484</v>
       </c>
       <c r="H48">
-        <v>33652</v>
+        <v>24219</v>
       </c>
       <c r="I48">
-        <v>483</v>
+        <v>-115</v>
       </c>
       <c r="J48">
-        <v>196251</v>
+        <v>192000</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="B49" t="s">
-        <v>2840</v>
+        <v>2895</v>
       </c>
       <c r="C49" t="s">
-        <v>3202</v>
+        <v>3343</v>
       </c>
       <c r="E49" t="s">
-        <v>2752</v>
+        <v>2525</v>
       </c>
       <c r="F49" t="s">
-        <v>2511</v>
+        <v>2484</v>
       </c>
       <c r="H49">
-        <v>39769</v>
+        <v>35215</v>
       </c>
       <c r="I49">
-        <v>114</v>
+        <v>2407</v>
       </c>
       <c r="J49">
-        <v>195000</v>
+        <v>191889</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>490</v>
+        <v>128</v>
       </c>
       <c r="B50" t="s">
-        <v>3080</v>
+        <v>2645</v>
       </c>
       <c r="C50" t="s">
-        <v>3203</v>
+        <v>3196</v>
       </c>
       <c r="E50" t="s">
-        <v>2752</v>
+        <v>2497</v>
       </c>
       <c r="F50" t="s">
-        <v>2484</v>
+        <v>2474</v>
       </c>
       <c r="H50">
-        <v>24219</v>
+        <v>71111</v>
       </c>
       <c r="I50">
-        <v>-115</v>
+        <v>-936</v>
       </c>
       <c r="J50">
-        <v>192000</v>
+        <v>189786</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>334</v>
+        <v>233</v>
       </c>
       <c r="B51" t="s">
-        <v>2895</v>
+        <v>2776</v>
       </c>
       <c r="C51" t="s">
-        <v>3204</v>
+        <v>3122</v>
       </c>
       <c r="E51" t="s">
-        <v>2525</v>
+        <v>2777</v>
       </c>
       <c r="F51" t="s">
-        <v>2484</v>
+        <v>2474</v>
       </c>
       <c r="H51">
-        <v>35215</v>
+        <v>45772</v>
       </c>
       <c r="I51">
-        <v>2407</v>
+        <v>3150</v>
       </c>
       <c r="J51">
-        <v>191889</v>
+        <v>189168</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="B52" t="s">
-        <v>2645</v>
+        <v>2565</v>
       </c>
       <c r="C52" t="s">
-        <v>3205</v>
+        <v>3123</v>
       </c>
       <c r="E52" t="s">
-        <v>2497</v>
+        <v>2566</v>
       </c>
       <c r="F52" t="s">
-        <v>2474</v>
+        <v>2486</v>
       </c>
       <c r="H52">
-        <v>71111</v>
+        <v>100706</v>
       </c>
       <c r="I52">
-        <v>-936</v>
+        <v>7715</v>
       </c>
       <c r="J52">
-        <v>189786</v>
+        <v>185405</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="B53" t="s">
-        <v>2776</v>
+        <v>2735</v>
       </c>
       <c r="C53" t="s">
-        <v>3122</v>
+        <v>3124</v>
       </c>
       <c r="E53" t="s">
-        <v>2777</v>
+        <v>2736</v>
       </c>
       <c r="F53" t="s">
-        <v>2474</v>
+        <v>2523</v>
       </c>
       <c r="H53">
-        <v>45772</v>
+        <v>51992</v>
       </c>
       <c r="I53">
-        <v>3150</v>
+        <v>3297</v>
       </c>
       <c r="J53">
-        <v>189168</v>
+        <v>185293</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="B54" t="s">
-        <v>2565</v>
+        <v>2725</v>
       </c>
       <c r="C54" t="s">
-        <v>3123</v>
+        <v>3197</v>
       </c>
       <c r="E54" t="s">
-        <v>2566</v>
+        <v>2481</v>
       </c>
       <c r="F54" t="s">
-        <v>2486</v>
+        <v>2618</v>
       </c>
       <c r="H54">
-        <v>100706</v>
+        <v>54459</v>
       </c>
       <c r="I54">
-        <v>7715</v>
+        <v>1264</v>
       </c>
       <c r="J54">
-        <v>185405</v>
+        <v>181742</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>200</v>
+        <v>42</v>
       </c>
       <c r="B55" t="s">
-        <v>2735</v>
+        <v>2532</v>
       </c>
       <c r="C55" t="s">
-        <v>3124</v>
+        <v>3198</v>
       </c>
       <c r="E55" t="s">
-        <v>2736</v>
+        <v>2497</v>
       </c>
       <c r="F55" t="s">
-        <v>2523</v>
+        <v>2486</v>
       </c>
       <c r="H55">
-        <v>51992</v>
+        <v>124333</v>
       </c>
       <c r="I55">
-        <v>3297</v>
+        <v>208</v>
       </c>
       <c r="J55">
-        <v>185293</v>
+        <v>179603</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B56" t="s">
-        <v>2725</v>
+        <v>2719</v>
       </c>
       <c r="C56" t="s">
-        <v>3206</v>
+        <v>3199</v>
       </c>
       <c r="E56" t="s">
-        <v>2481</v>
+        <v>2465</v>
       </c>
       <c r="F56" t="s">
-        <v>2618</v>
+        <v>2486</v>
       </c>
       <c r="H56">
-        <v>54459</v>
+        <v>55325</v>
       </c>
       <c r="I56">
-        <v>1264</v>
+        <v>4715</v>
       </c>
       <c r="J56">
-        <v>181742</v>
+        <v>179288</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>42</v>
+        <v>153</v>
       </c>
       <c r="B57" t="s">
-        <v>2532</v>
+        <v>2678</v>
       </c>
       <c r="C57" t="s">
-        <v>3207</v>
+        <v>3200</v>
       </c>
       <c r="E57" t="s">
-        <v>2497</v>
+        <v>2679</v>
       </c>
       <c r="F57" t="s">
-        <v>2486</v>
+        <v>2571</v>
       </c>
       <c r="H57">
-        <v>124333</v>
+        <v>64251</v>
       </c>
       <c r="I57">
-        <v>208</v>
+        <v>6859</v>
       </c>
       <c r="J57">
-        <v>179603</v>
+        <v>173000</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="B58" t="s">
-        <v>2719</v>
+        <v>2773</v>
       </c>
       <c r="C58" t="s">
-        <v>3208</v>
+        <v>3201</v>
       </c>
       <c r="E58" t="s">
-        <v>2465</v>
+        <v>2603</v>
       </c>
       <c r="F58" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="H58">
-        <v>55325</v>
+        <v>46774</v>
       </c>
       <c r="I58">
-        <v>4715</v>
+        <v>4520</v>
       </c>
       <c r="J58">
-        <v>179288</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>30</v>
+        <v>367</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>2935</v>
       </c>
       <c r="C59" t="s">
-        <v>1119</v>
+        <v>3202</v>
       </c>
       <c r="E59" t="s">
-        <v>2512</v>
+        <v>2736</v>
       </c>
       <c r="F59" t="s">
-        <v>2511</v>
+        <v>2560</v>
       </c>
       <c r="H59">
-        <v>139367</v>
+        <v>33082</v>
       </c>
       <c r="I59">
-        <v>4644</v>
+        <v>2574</v>
       </c>
       <c r="J59">
-        <v>177800</v>
+        <v>167124</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>153</v>
+        <v>341</v>
       </c>
       <c r="B60" t="s">
-        <v>2678</v>
+        <v>2903</v>
       </c>
       <c r="C60" t="s">
-        <v>3209</v>
+        <v>3203</v>
       </c>
       <c r="E60" t="s">
-        <v>2679</v>
+        <v>2904</v>
       </c>
       <c r="F60" t="s">
-        <v>2571</v>
+        <v>2464</v>
       </c>
       <c r="H60">
-        <v>64251</v>
+        <v>34704</v>
       </c>
       <c r="I60">
-        <v>6859</v>
+        <v>-452</v>
       </c>
       <c r="J60">
-        <v>173000</v>
+        <v>167030</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>2712</v>
       </c>
       <c r="C61" t="s">
-        <v>3210</v>
+        <v>3204</v>
       </c>
       <c r="E61" t="s">
-        <v>2520</v>
+        <v>2681</v>
       </c>
       <c r="F61" t="s">
-        <v>2489</v>
+        <v>2618</v>
       </c>
       <c r="H61">
-        <v>130474</v>
+        <v>56027</v>
       </c>
       <c r="I61">
-        <v>5619</v>
+        <v>284</v>
       </c>
       <c r="J61">
-        <v>170000</v>
+        <v>160745</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>228</v>
+        <v>376</v>
       </c>
       <c r="B62" t="s">
-        <v>2773</v>
+        <v>2945</v>
       </c>
       <c r="C62" t="s">
-        <v>3211</v>
+        <v>3205</v>
       </c>
       <c r="E62" t="s">
-        <v>2603</v>
+        <v>2497</v>
       </c>
       <c r="F62" t="s">
-        <v>2484</v>
+        <v>2464</v>
       </c>
       <c r="H62">
-        <v>46774</v>
+        <v>31831</v>
       </c>
       <c r="I62">
-        <v>4520</v>
+        <v>326</v>
       </c>
       <c r="J62">
-        <v>170000</v>
+        <v>160180</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>2799</v>
       </c>
       <c r="C63" t="s">
-        <v>3212</v>
+        <v>3206</v>
       </c>
       <c r="E63" t="s">
-        <v>2792</v>
+        <v>2525</v>
       </c>
       <c r="F63" t="s">
-        <v>2474</v>
+        <v>2484</v>
       </c>
       <c r="H63">
-        <v>43855</v>
+        <v>43231</v>
       </c>
       <c r="I63">
-        <v>1215</v>
+        <v>1273</v>
       </c>
       <c r="J63">
-        <v>168000</v>
+        <v>158846</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>367</v>
+        <v>199</v>
       </c>
       <c r="B64" t="s">
-        <v>2935</v>
+        <v>2734</v>
       </c>
       <c r="C64" t="s">
-        <v>3213</v>
+        <v>3207</v>
       </c>
       <c r="E64" t="s">
-        <v>2736</v>
+        <v>2497</v>
       </c>
       <c r="F64" t="s">
-        <v>2560</v>
+        <v>2517</v>
       </c>
       <c r="H64">
-        <v>33082</v>
+        <v>52325</v>
       </c>
       <c r="I64">
-        <v>2574</v>
+        <v>1227</v>
       </c>
       <c r="J64">
-        <v>167124</v>
+        <v>156233</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>341</v>
+        <v>409</v>
       </c>
       <c r="B65" t="s">
-        <v>2903</v>
+        <v>2989</v>
       </c>
       <c r="C65" t="s">
-        <v>3214</v>
+        <v>3208</v>
       </c>
       <c r="E65" t="s">
-        <v>2904</v>
+        <v>2990</v>
       </c>
       <c r="F65" t="s">
         <v>2464</v>
       </c>
       <c r="H65">
-        <v>34704</v>
+        <v>29397</v>
       </c>
       <c r="I65">
-        <v>-452</v>
+        <v>-10</v>
       </c>
       <c r="J65">
-        <v>167030</v>
+        <v>155566</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="B66" t="s">
-        <v>2712</v>
+        <v>2770</v>
       </c>
       <c r="C66" t="s">
-        <v>3215</v>
+        <v>1171</v>
       </c>
       <c r="E66" t="s">
-        <v>2681</v>
+        <v>2771</v>
       </c>
       <c r="F66" t="s">
-        <v>2618</v>
+        <v>2571</v>
       </c>
       <c r="H66">
-        <v>56027</v>
+        <v>47063</v>
       </c>
       <c r="I66">
-        <v>284</v>
+        <v>9216</v>
       </c>
       <c r="J66">
-        <v>160745</v>
+        <v>154029</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>376</v>
+        <v>49</v>
       </c>
       <c r="B67" t="s">
-        <v>2945</v>
+        <v>2541</v>
       </c>
       <c r="C67" t="s">
-        <v>3216</v>
+        <v>3096</v>
       </c>
       <c r="E67" t="s">
         <v>2497</v>
       </c>
       <c r="F67" t="s">
-        <v>2464</v>
+        <v>2486</v>
       </c>
       <c r="H67">
-        <v>31831</v>
+        <v>118232</v>
       </c>
       <c r="I67">
-        <v>326</v>
+        <v>3571</v>
       </c>
       <c r="J67">
-        <v>160180</v>
+        <v>153836</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>251</v>
+        <v>39</v>
       </c>
       <c r="B68" t="s">
-        <v>2799</v>
+        <v>2526</v>
       </c>
       <c r="C68" t="s">
-        <v>3217</v>
+        <v>3209</v>
       </c>
       <c r="E68" t="s">
-        <v>2525</v>
+        <v>2527</v>
       </c>
       <c r="F68" t="s">
-        <v>2484</v>
+        <v>2464</v>
       </c>
       <c r="H68">
-        <v>43231</v>
+        <v>128439</v>
       </c>
       <c r="I68">
-        <v>1273</v>
+        <v>7386</v>
       </c>
       <c r="J68">
-        <v>158846</v>
+        <v>152072</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>199</v>
+        <v>453</v>
       </c>
       <c r="B69" t="s">
-        <v>2734</v>
+        <v>3040</v>
       </c>
       <c r="C69" t="s">
-        <v>3218</v>
+        <v>3210</v>
       </c>
       <c r="E69" t="s">
-        <v>2497</v>
+        <v>2801</v>
       </c>
       <c r="F69" t="s">
-        <v>2517</v>
+        <v>2484</v>
       </c>
       <c r="H69">
-        <v>52325</v>
+        <v>26147</v>
       </c>
       <c r="I69">
-        <v>1227</v>
+        <v>600</v>
       </c>
       <c r="J69">
-        <v>156233</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>409</v>
+        <v>59</v>
       </c>
       <c r="B70" t="s">
-        <v>2989</v>
+        <v>2552</v>
       </c>
       <c r="C70" t="s">
-        <v>3219</v>
+        <v>3211</v>
       </c>
       <c r="E70" t="s">
-        <v>2990</v>
+        <v>2553</v>
       </c>
       <c r="F70" t="s">
-        <v>2464</v>
+        <v>2474</v>
       </c>
       <c r="H70">
-        <v>29397</v>
+        <v>103459</v>
       </c>
       <c r="I70">
-        <v>-10</v>
+        <v>4161</v>
       </c>
       <c r="J70">
-        <v>155566</v>
+        <v>149388</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>226</v>
+        <v>315</v>
       </c>
       <c r="B71" t="s">
-        <v>2770</v>
+        <v>2870</v>
       </c>
       <c r="C71" t="s">
-        <v>1171</v>
+        <v>3126</v>
       </c>
       <c r="E71" t="s">
-        <v>2771</v>
+        <v>2871</v>
       </c>
       <c r="F71" t="s">
-        <v>2571</v>
+        <v>2464</v>
       </c>
       <c r="H71">
-        <v>47063</v>
+        <v>37201</v>
       </c>
       <c r="I71">
-        <v>9216</v>
+        <v>-351</v>
       </c>
       <c r="J71">
-        <v>154029</v>
+        <v>147970</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B72" t="s">
-        <v>2541</v>
+        <v>2515</v>
       </c>
       <c r="C72" t="s">
-        <v>3096</v>
+        <v>3127</v>
       </c>
       <c r="E72" t="s">
-        <v>2497</v>
+        <v>2516</v>
       </c>
       <c r="F72" t="s">
         <v>2486</v>
       </c>
       <c r="H72">
-        <v>118232</v>
+        <v>136846</v>
       </c>
       <c r="I72">
-        <v>3571</v>
+        <v>8252</v>
       </c>
       <c r="J72">
-        <v>153836</v>
+        <v>147425</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>39</v>
+        <v>293</v>
       </c>
       <c r="B73" t="s">
-        <v>2526</v>
+        <v>2846</v>
       </c>
       <c r="C73" t="s">
-        <v>3220</v>
+        <v>3212</v>
       </c>
       <c r="E73" t="s">
-        <v>2527</v>
+        <v>2847</v>
       </c>
       <c r="F73" t="s">
-        <v>2464</v>
+        <v>2474</v>
       </c>
       <c r="H73">
-        <v>128439</v>
+        <v>39198</v>
       </c>
       <c r="I73">
-        <v>7386</v>
+        <v>2350</v>
       </c>
       <c r="J73">
-        <v>152072</v>
+        <v>146714</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>453</v>
+        <v>379</v>
       </c>
       <c r="B74" t="s">
-        <v>3040</v>
+        <v>2948</v>
       </c>
       <c r="C74" t="s">
-        <v>3221</v>
+        <v>3128</v>
       </c>
       <c r="E74" t="s">
-        <v>2801</v>
+        <v>2949</v>
       </c>
       <c r="F74" t="s">
-        <v>2484</v>
+        <v>2464</v>
       </c>
       <c r="H74">
-        <v>26147</v>
+        <v>31504</v>
       </c>
       <c r="I74">
-        <v>600</v>
+        <v>102</v>
       </c>
       <c r="J74">
-        <v>150000</v>
+        <v>145646</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B75" t="s">
-        <v>2552</v>
+        <v>2537</v>
       </c>
       <c r="C75" t="s">
-        <v>3222</v>
+        <v>3213</v>
       </c>
       <c r="E75" t="s">
-        <v>2553</v>
+        <v>2538</v>
       </c>
       <c r="F75" t="s">
-        <v>2474</v>
+        <v>2464</v>
       </c>
       <c r="H75">
-        <v>103459</v>
+        <v>119238</v>
       </c>
       <c r="I75">
-        <v>4161</v>
+        <v>-19929</v>
       </c>
       <c r="J75">
-        <v>149388</v>
+        <v>144927</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="B76" t="s">
-        <v>2870</v>
+        <v>2902</v>
       </c>
       <c r="C76" t="s">
-        <v>3126</v>
+        <v>3214</v>
       </c>
       <c r="E76" t="s">
-        <v>2871</v>
+        <v>2525</v>
       </c>
       <c r="F76" t="s">
-        <v>2464</v>
+        <v>2474</v>
       </c>
       <c r="H76">
-        <v>37201</v>
+        <v>34711</v>
       </c>
       <c r="I76">
-        <v>-351</v>
+        <v>2840</v>
       </c>
       <c r="J76">
-        <v>147970</v>
+        <v>144632</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>32</v>
+        <v>224</v>
       </c>
       <c r="B77" t="s">
-        <v>2515</v>
+        <v>2768</v>
       </c>
       <c r="C77" t="s">
-        <v>3127</v>
+        <v>3129</v>
       </c>
       <c r="E77" t="s">
-        <v>2516</v>
+        <v>2465</v>
       </c>
       <c r="F77" t="s">
-        <v>2486</v>
+        <v>2464</v>
       </c>
       <c r="H77">
-        <v>136846</v>
+        <v>47401</v>
       </c>
       <c r="I77">
-        <v>8252</v>
+        <v>423</v>
       </c>
       <c r="J77">
-        <v>147425</v>
+        <v>142260</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>293</v>
+        <v>380</v>
       </c>
       <c r="B78" t="s">
-        <v>2846</v>
+        <v>2950</v>
       </c>
       <c r="C78" t="s">
-        <v>3223</v>
+        <v>3130</v>
       </c>
       <c r="E78" t="s">
-        <v>2847</v>
+        <v>2951</v>
       </c>
       <c r="F78" t="s">
-        <v>2474</v>
+        <v>2464</v>
       </c>
       <c r="H78">
-        <v>39198</v>
+        <v>31391</v>
       </c>
       <c r="I78">
-        <v>2350</v>
+        <v>1085</v>
       </c>
       <c r="J78">
-        <v>146714</v>
+        <v>141085</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>379</v>
+        <v>284</v>
       </c>
       <c r="B79" t="s">
-        <v>2948</v>
+        <v>2836</v>
       </c>
       <c r="C79" t="s">
-        <v>3128</v>
+        <v>3215</v>
       </c>
       <c r="E79" t="s">
-        <v>2949</v>
+        <v>2638</v>
       </c>
       <c r="F79" t="s">
-        <v>2464</v>
+        <v>2560</v>
       </c>
       <c r="H79">
-        <v>31504</v>
+        <v>39830</v>
       </c>
       <c r="I79">
-        <v>102</v>
+        <v>2594</v>
       </c>
       <c r="J79">
-        <v>145646</v>
+        <v>140400</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>47</v>
+        <v>402</v>
       </c>
       <c r="B80" t="s">
-        <v>2537</v>
+        <v>2979</v>
       </c>
       <c r="C80" t="s">
-        <v>3224</v>
+        <v>3216</v>
       </c>
       <c r="E80" t="s">
-        <v>2538</v>
+        <v>2465</v>
       </c>
       <c r="F80" t="s">
-        <v>2464</v>
+        <v>2618</v>
       </c>
       <c r="H80">
-        <v>119238</v>
+        <v>29668</v>
       </c>
       <c r="I80">
-        <v>-19929</v>
+        <v>3</v>
       </c>
       <c r="J80">
-        <v>144927</v>
+        <v>139422</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="B81" t="s">
-        <v>2902</v>
+        <v>2613</v>
       </c>
       <c r="C81" t="s">
-        <v>3225</v>
+        <v>3217</v>
       </c>
       <c r="E81" t="s">
-        <v>2525</v>
+        <v>2614</v>
       </c>
       <c r="F81" t="s">
-        <v>2474</v>
+        <v>2591</v>
       </c>
       <c r="H81">
-        <v>34711</v>
+        <v>80537</v>
       </c>
       <c r="I81">
-        <v>2840</v>
+        <v>3108</v>
       </c>
       <c r="J81">
-        <v>144632</v>
+        <v>138622</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B82" t="s">
-        <v>2768</v>
+        <v>2760</v>
       </c>
       <c r="C82" t="s">
-        <v>3129</v>
+        <v>3218</v>
       </c>
       <c r="E82" t="s">
-        <v>2465</v>
+        <v>2555</v>
       </c>
       <c r="F82" t="s">
-        <v>2464</v>
+        <v>2618</v>
       </c>
       <c r="H82">
-        <v>47401</v>
+        <v>48323</v>
       </c>
       <c r="I82">
-        <v>423</v>
+        <v>952</v>
       </c>
       <c r="J82">
-        <v>142260</v>
+        <v>136616</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>380</v>
+        <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>2950</v>
+        <v>2698</v>
       </c>
       <c r="C83" t="s">
-        <v>3130</v>
+        <v>3219</v>
       </c>
       <c r="E83" t="s">
-        <v>2951</v>
+        <v>2699</v>
       </c>
       <c r="F83" t="s">
-        <v>2464</v>
+        <v>2489</v>
       </c>
       <c r="H83">
-        <v>31391</v>
+        <v>59593</v>
       </c>
       <c r="I83">
-        <v>1085</v>
+        <v>10210</v>
       </c>
       <c r="J83">
-        <v>141085</v>
+        <v>133413</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>284</v>
+        <v>195</v>
       </c>
       <c r="B84" t="s">
-        <v>2836</v>
+        <v>2729</v>
       </c>
       <c r="C84" t="s">
-        <v>3226</v>
+        <v>3220</v>
       </c>
       <c r="E84" t="s">
-        <v>2638</v>
+        <v>2471</v>
       </c>
       <c r="F84" t="s">
-        <v>2560</v>
+        <v>2486</v>
       </c>
       <c r="H84">
-        <v>39830</v>
+        <v>53850</v>
       </c>
       <c r="I84">
-        <v>2594</v>
+        <v>-286</v>
       </c>
       <c r="J84">
-        <v>140400</v>
+        <v>132300</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>402</v>
+        <v>239</v>
       </c>
       <c r="B85" t="s">
-        <v>2979</v>
+        <v>2785</v>
       </c>
       <c r="C85" t="s">
-        <v>3227</v>
+        <v>3131</v>
       </c>
       <c r="E85" t="s">
-        <v>2465</v>
+        <v>2786</v>
       </c>
       <c r="F85" t="s">
         <v>2618</v>
       </c>
       <c r="H85">
-        <v>29668</v>
+        <v>45543</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>-186</v>
       </c>
       <c r="J85">
-        <v>139422</v>
+        <v>132146</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="B86" t="s">
-        <v>2613</v>
+        <v>2631</v>
       </c>
       <c r="C86" t="s">
-        <v>3228</v>
+        <v>3221</v>
       </c>
       <c r="E86" t="s">
-        <v>2614</v>
+        <v>2525</v>
       </c>
       <c r="F86" t="s">
-        <v>2591</v>
+        <v>2484</v>
       </c>
       <c r="H86">
-        <v>80537</v>
+        <v>74724</v>
       </c>
       <c r="I86">
-        <v>3108</v>
+        <v>-1145</v>
       </c>
       <c r="J86">
-        <v>138622</v>
+        <v>131700</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>218</v>
+        <v>318</v>
       </c>
       <c r="B87" t="s">
-        <v>2760</v>
+        <v>2876</v>
       </c>
       <c r="C87" t="s">
-        <v>3229</v>
+        <v>3222</v>
       </c>
       <c r="E87" t="s">
-        <v>2555</v>
+        <v>2877</v>
       </c>
       <c r="F87" t="s">
-        <v>2618</v>
+        <v>2474</v>
       </c>
       <c r="H87">
-        <v>48323</v>
+        <v>36641</v>
       </c>
       <c r="I87">
-        <v>952</v>
+        <v>1882</v>
       </c>
       <c r="J87">
-        <v>136616</v>
+        <v>131225</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>167</v>
+        <v>291</v>
       </c>
       <c r="B88" t="s">
-        <v>2698</v>
+        <v>2844</v>
       </c>
       <c r="C88" t="s">
-        <v>3230</v>
+        <v>3223</v>
       </c>
       <c r="E88" t="s">
-        <v>2699</v>
+        <v>2525</v>
       </c>
       <c r="F88" t="s">
-        <v>2489</v>
+        <v>2560</v>
       </c>
       <c r="H88">
-        <v>59593</v>
+        <v>39318</v>
       </c>
       <c r="I88">
-        <v>10210</v>
+        <v>2134</v>
       </c>
       <c r="J88">
-        <v>133413</v>
+        <v>129249</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="B89" t="s">
-        <v>2729</v>
+        <v>2793</v>
       </c>
       <c r="C89" t="s">
-        <v>3231</v>
+        <v>3224</v>
       </c>
       <c r="E89" t="s">
-        <v>2471</v>
+        <v>2794</v>
       </c>
       <c r="F89" t="s">
         <v>2486</v>
       </c>
       <c r="H89">
-        <v>53850</v>
+        <v>43810</v>
       </c>
       <c r="I89">
-        <v>-286</v>
+        <v>2663</v>
       </c>
       <c r="J89">
-        <v>132300</v>
+        <v>129021</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B90" t="s">
-        <v>2785</v>
+        <v>2791</v>
       </c>
       <c r="C90" t="s">
-        <v>3131</v>
+        <v>3225</v>
       </c>
       <c r="E90" t="s">
-        <v>2786</v>
+        <v>2497</v>
       </c>
       <c r="F90" t="s">
-        <v>2618</v>
+        <v>2523</v>
       </c>
       <c r="H90">
-        <v>45543</v>
+        <v>44100</v>
       </c>
       <c r="I90">
-        <v>-186</v>
+        <v>1070</v>
       </c>
       <c r="J90">
-        <v>132146</v>
+        <v>127470</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>116</v>
+        <v>248</v>
       </c>
       <c r="B91" t="s">
-        <v>2631</v>
+        <v>2796</v>
       </c>
       <c r="C91" t="s">
-        <v>3232</v>
+        <v>3132</v>
       </c>
       <c r="E91" t="s">
-        <v>2525</v>
+        <v>2797</v>
       </c>
       <c r="F91" t="s">
-        <v>2484</v>
+        <v>2511</v>
       </c>
       <c r="H91">
-        <v>74724</v>
+        <v>43514</v>
       </c>
       <c r="I91">
-        <v>-1145</v>
+        <v>788</v>
       </c>
       <c r="J91">
-        <v>131700</v>
+        <v>126000</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>318</v>
+        <v>201</v>
       </c>
       <c r="B92" t="s">
-        <v>2876</v>
+        <v>2737</v>
       </c>
       <c r="C92" t="s">
-        <v>3233</v>
+        <v>3133</v>
       </c>
       <c r="E92" t="s">
-        <v>2877</v>
+        <v>2525</v>
       </c>
       <c r="F92" t="s">
-        <v>2474</v>
+        <v>2486</v>
       </c>
       <c r="H92">
-        <v>36641</v>
+        <v>51282</v>
       </c>
       <c r="I92">
-        <v>1882</v>
+        <v>9402</v>
       </c>
       <c r="J92">
-        <v>131225</v>
+        <v>125739</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>291</v>
+        <v>140</v>
       </c>
       <c r="B93" t="s">
-        <v>2844</v>
+        <v>2663</v>
       </c>
       <c r="C93" t="s">
-        <v>3234</v>
+        <v>3226</v>
       </c>
       <c r="E93" t="s">
-        <v>2525</v>
+        <v>2566</v>
       </c>
       <c r="F93" t="s">
-        <v>2560</v>
+        <v>2517</v>
       </c>
       <c r="H93">
-        <v>39318</v>
+        <v>66826</v>
       </c>
       <c r="I93">
-        <v>2134</v>
+        <v>3980</v>
       </c>
       <c r="J93">
-        <v>129249</v>
+        <v>123700</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="B94" t="s">
-        <v>2793</v>
+        <v>2778</v>
       </c>
       <c r="C94" t="s">
-        <v>3235</v>
+        <v>3134</v>
       </c>
       <c r="E94" t="s">
-        <v>2794</v>
+        <v>2780</v>
       </c>
       <c r="F94" t="s">
-        <v>2486</v>
+        <v>2779</v>
       </c>
       <c r="H94">
-        <v>43810</v>
+        <v>45757</v>
       </c>
       <c r="I94">
-        <v>2663</v>
+        <v>1150</v>
       </c>
       <c r="J94">
-        <v>129021</v>
+        <v>123517</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="B95" t="s">
-        <v>2791</v>
+        <v>2841</v>
       </c>
       <c r="C95" t="s">
-        <v>3236</v>
+        <v>3227</v>
       </c>
       <c r="E95" t="s">
-        <v>2497</v>
+        <v>2465</v>
       </c>
       <c r="F95" t="s">
-        <v>2523</v>
+        <v>2560</v>
       </c>
       <c r="H95">
-        <v>44100</v>
+        <v>39722</v>
       </c>
       <c r="I95">
-        <v>1070</v>
+        <v>-288</v>
       </c>
       <c r="J95">
-        <v>127470</v>
+        <v>120771</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="B96" t="s">
-        <v>2796</v>
+        <v>2826</v>
       </c>
       <c r="C96" t="s">
-        <v>3132</v>
+        <v>3228</v>
       </c>
       <c r="E96" t="s">
-        <v>2797</v>
+        <v>2465</v>
       </c>
       <c r="F96" t="s">
-        <v>2511</v>
+        <v>2529</v>
       </c>
       <c r="H96">
-        <v>43514</v>
+        <v>40524</v>
       </c>
       <c r="I96">
-        <v>788</v>
+        <v>123</v>
       </c>
       <c r="J96">
-        <v>126000</v>
+        <v>120674</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>201</v>
+        <v>389</v>
       </c>
       <c r="B97" t="s">
-        <v>2737</v>
+        <v>2963</v>
       </c>
       <c r="C97" t="s">
-        <v>3133</v>
+        <v>3229</v>
       </c>
       <c r="E97" t="s">
-        <v>2525</v>
+        <v>2964</v>
       </c>
       <c r="F97" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="H97">
-        <v>51282</v>
+        <v>30569</v>
       </c>
       <c r="I97">
-        <v>9402</v>
+        <v>623</v>
       </c>
       <c r="J97">
-        <v>125739</v>
+        <v>120370</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>140</v>
+        <v>215</v>
       </c>
       <c r="B98" t="s">
-        <v>2663</v>
+        <v>2756</v>
       </c>
       <c r="C98" t="s">
-        <v>3237</v>
+        <v>3230</v>
       </c>
       <c r="E98" t="s">
-        <v>2566</v>
+        <v>2501</v>
       </c>
       <c r="F98" t="s">
-        <v>2517</v>
+        <v>2464</v>
       </c>
       <c r="H98">
-        <v>66826</v>
+        <v>48580</v>
       </c>
       <c r="I98">
-        <v>3980</v>
+        <v>5438</v>
       </c>
       <c r="J98">
-        <v>123700</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>234</v>
+        <v>208</v>
       </c>
       <c r="B99" t="s">
-        <v>2778</v>
+        <v>3345</v>
       </c>
       <c r="C99" t="s">
-        <v>3134</v>
+        <v>3097</v>
       </c>
       <c r="E99" t="s">
-        <v>2780</v>
+        <v>2746</v>
       </c>
       <c r="F99" t="s">
-        <v>2779</v>
+        <v>2624</v>
       </c>
       <c r="H99">
-        <v>45757</v>
+        <v>50337</v>
       </c>
       <c r="I99">
-        <v>1150</v>
+        <v>5015</v>
       </c>
       <c r="J99">
-        <v>123517</v>
+        <v>119207</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>288</v>
+        <v>178</v>
       </c>
       <c r="B100" t="s">
-        <v>2841</v>
+        <v>2710</v>
       </c>
       <c r="C100" t="s">
-        <v>3238</v>
+        <v>3231</v>
       </c>
       <c r="E100" t="s">
-        <v>2465</v>
+        <v>2711</v>
       </c>
       <c r="F100" t="s">
-        <v>2560</v>
+        <v>2580</v>
       </c>
       <c r="H100">
-        <v>39722</v>
+        <v>56031</v>
       </c>
       <c r="I100">
-        <v>-288</v>
+        <v>4544</v>
       </c>
       <c r="J100">
-        <v>120771</v>
+        <v>118888</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="B101" t="s">
-        <v>2826</v>
+        <v>2837</v>
       </c>
       <c r="C101" t="s">
-        <v>3239</v>
+        <v>3232</v>
       </c>
       <c r="E101" t="s">
-        <v>2465</v>
+        <v>2838</v>
       </c>
       <c r="F101" t="s">
-        <v>2529</v>
+        <v>2624</v>
       </c>
       <c r="H101">
-        <v>40524</v>
+        <v>39810</v>
       </c>
       <c r="I101">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="J101">
-        <v>120674</v>
+        <v>118781</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="B102" t="s">
-        <v>2963</v>
+        <v>2929</v>
       </c>
       <c r="C102" t="s">
-        <v>3240</v>
+        <v>3233</v>
       </c>
       <c r="E102" t="s">
-        <v>2964</v>
+        <v>2930</v>
       </c>
       <c r="F102" t="s">
         <v>2484</v>
       </c>
       <c r="H102">
-        <v>30569</v>
+        <v>33220</v>
       </c>
       <c r="I102">
-        <v>623</v>
+        <v>1685</v>
       </c>
       <c r="J102">
-        <v>120370</v>
+        <v>118443</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>215</v>
+        <v>382</v>
       </c>
       <c r="B103" t="s">
-        <v>2756</v>
+        <v>2954</v>
       </c>
       <c r="C103" t="s">
-        <v>3241</v>
+        <v>3234</v>
       </c>
       <c r="E103" t="s">
-        <v>2501</v>
+        <v>2955</v>
       </c>
       <c r="F103" t="s">
         <v>2464</v>
       </c>
       <c r="H103">
-        <v>48580</v>
+        <v>31317</v>
       </c>
       <c r="I103">
-        <v>5438</v>
+        <v>-2</v>
       </c>
       <c r="J103">
-        <v>120000</v>
+        <v>118171</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B104" t="s">
-        <v>2745</v>
+        <v>2724</v>
       </c>
       <c r="C104" t="s">
-        <v>3097</v>
+        <v>3235</v>
       </c>
       <c r="E104" t="s">
-        <v>2746</v>
+        <v>2562</v>
       </c>
       <c r="F104" t="s">
-        <v>2624</v>
+        <v>2474</v>
       </c>
       <c r="H104">
-        <v>50337</v>
+        <v>54460</v>
       </c>
       <c r="I104">
-        <v>5015</v>
+        <v>2507</v>
       </c>
       <c r="J104">
-        <v>119207</v>
+        <v>117395</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105">
-        <v>178</v>
+        <v>56</v>
       </c>
       <c r="B105" t="s">
-        <v>2710</v>
+        <v>2548</v>
       </c>
       <c r="C105" t="s">
-        <v>3242</v>
+        <v>3236</v>
       </c>
       <c r="E105" t="s">
-        <v>2711</v>
+        <v>2516</v>
       </c>
       <c r="F105" t="s">
-        <v>2580</v>
+        <v>2474</v>
       </c>
       <c r="H105">
-        <v>56031</v>
+        <v>106654</v>
       </c>
       <c r="I105">
-        <v>4544</v>
+        <v>7691</v>
       </c>
       <c r="J105">
-        <v>118888</v>
+        <v>116324</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>285</v>
+        <v>72</v>
       </c>
       <c r="B106" t="s">
-        <v>2837</v>
+        <v>2574</v>
       </c>
       <c r="C106" t="s">
-        <v>3243</v>
+        <v>3135</v>
       </c>
       <c r="E106" t="s">
-        <v>2838</v>
+        <v>2465</v>
       </c>
       <c r="F106" t="s">
-        <v>2624</v>
+        <v>2464</v>
       </c>
       <c r="H106">
-        <v>39810</v>
+        <v>99262</v>
       </c>
       <c r="I106">
-        <v>73</v>
+        <v>8592</v>
       </c>
       <c r="J106">
-        <v>118781</v>
+        <v>114573</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="B107" t="s">
-        <v>2929</v>
+        <v>2986</v>
       </c>
       <c r="C107" t="s">
-        <v>3244</v>
+        <v>3237</v>
       </c>
       <c r="E107" t="s">
-        <v>2930</v>
+        <v>2987</v>
       </c>
       <c r="F107" t="s">
-        <v>2484</v>
+        <v>2511</v>
       </c>
       <c r="H107">
-        <v>33220</v>
+        <v>29482</v>
       </c>
       <c r="I107">
-        <v>1685</v>
+        <v>118</v>
       </c>
       <c r="J107">
-        <v>118443</v>
+        <v>114373</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108">
-        <v>382</v>
+        <v>241</v>
       </c>
       <c r="B108" t="s">
-        <v>2954</v>
+        <v>2788</v>
       </c>
       <c r="C108" t="s">
-        <v>3245</v>
+        <v>3238</v>
       </c>
       <c r="E108" t="s">
-        <v>2955</v>
+        <v>2497</v>
       </c>
       <c r="F108" t="s">
-        <v>2464</v>
+        <v>2489</v>
       </c>
       <c r="H108">
-        <v>31317</v>
+        <v>45246</v>
       </c>
       <c r="I108">
-        <v>-2</v>
+        <v>5823</v>
       </c>
       <c r="J108">
-        <v>118171</v>
+        <v>113496</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>191</v>
+        <v>76</v>
       </c>
       <c r="B109" t="s">
-        <v>2724</v>
+        <v>2579</v>
       </c>
       <c r="C109" t="s">
-        <v>3246</v>
+        <v>3239</v>
       </c>
       <c r="E109" t="s">
-        <v>2562</v>
+        <v>2581</v>
       </c>
       <c r="F109" t="s">
-        <v>2474</v>
+        <v>2580</v>
       </c>
       <c r="H109">
-        <v>54460</v>
+        <v>98595</v>
       </c>
       <c r="I109">
-        <v>2507</v>
+        <v>6838</v>
       </c>
       <c r="J109">
-        <v>117395</v>
+        <v>113292</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>56</v>
+        <v>165</v>
       </c>
       <c r="B110" t="s">
-        <v>2548</v>
+        <v>2696</v>
       </c>
       <c r="C110" t="s">
-        <v>3247</v>
+        <v>3136</v>
       </c>
       <c r="E110" t="s">
-        <v>2516</v>
+        <v>2465</v>
       </c>
       <c r="F110" t="s">
-        <v>2474</v>
+        <v>2523</v>
       </c>
       <c r="H110">
-        <v>106654</v>
+        <v>60119</v>
       </c>
       <c r="I110">
-        <v>7691</v>
+        <v>1467</v>
       </c>
       <c r="J110">
-        <v>116324</v>
+        <v>113189</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>72</v>
+        <v>464</v>
       </c>
       <c r="B111" t="s">
-        <v>2574</v>
+        <v>3051</v>
       </c>
       <c r="C111" t="s">
-        <v>3135</v>
+        <v>3240</v>
       </c>
       <c r="E111" t="s">
-        <v>2465</v>
+        <v>3052</v>
       </c>
       <c r="F111" t="s">
-        <v>2464</v>
+        <v>2624</v>
       </c>
       <c r="H111">
-        <v>99262</v>
+        <v>25646</v>
       </c>
       <c r="I111">
-        <v>8592</v>
+        <v>206</v>
       </c>
       <c r="J111">
-        <v>114573</v>
+        <v>113089</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>407</v>
+        <v>126</v>
       </c>
       <c r="B112" t="s">
-        <v>2986</v>
+        <v>2642</v>
       </c>
       <c r="C112" t="s">
-        <v>3248</v>
+        <v>3137</v>
       </c>
       <c r="E112" t="s">
-        <v>2987</v>
+        <v>2643</v>
       </c>
       <c r="F112" t="s">
-        <v>2511</v>
+        <v>2486</v>
       </c>
       <c r="H112">
-        <v>29482</v>
+        <v>71184</v>
       </c>
       <c r="I112">
-        <v>118</v>
+        <v>5035</v>
       </c>
       <c r="J112">
-        <v>114373</v>
+        <v>111628</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="B113" t="s">
-        <v>2788</v>
+        <v>2743</v>
       </c>
       <c r="C113" t="s">
-        <v>3249</v>
+        <v>3241</v>
       </c>
       <c r="E113" t="s">
-        <v>2497</v>
+        <v>2651</v>
       </c>
       <c r="F113" t="s">
-        <v>2489</v>
+        <v>2529</v>
       </c>
       <c r="H113">
-        <v>45246</v>
+        <v>50855</v>
       </c>
       <c r="I113">
-        <v>5823</v>
+        <v>2733</v>
       </c>
       <c r="J113">
-        <v>113496</v>
+        <v>110487</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B114" t="s">
-        <v>2579</v>
+        <v>2533</v>
       </c>
       <c r="C114" t="s">
-        <v>3250</v>
+        <v>3242</v>
       </c>
       <c r="E114" t="s">
-        <v>2581</v>
+        <v>2506</v>
       </c>
       <c r="F114" t="s">
-        <v>2580</v>
+        <v>2464</v>
       </c>
       <c r="H114">
-        <v>98595</v>
+        <v>122803</v>
       </c>
       <c r="I114">
-        <v>6838</v>
+        <v>4746</v>
       </c>
       <c r="J114">
-        <v>113292</v>
+        <v>110300</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>165</v>
+        <v>99</v>
       </c>
       <c r="B115" t="s">
-        <v>2696</v>
+        <v>2606</v>
       </c>
       <c r="C115" t="s">
-        <v>3136</v>
+        <v>3243</v>
       </c>
       <c r="E115" t="s">
-        <v>2465</v>
+        <v>2550</v>
       </c>
       <c r="F115" t="s">
-        <v>2523</v>
+        <v>2474</v>
       </c>
       <c r="H115">
-        <v>60119</v>
+        <v>84771</v>
       </c>
       <c r="I115">
-        <v>1467</v>
+        <v>6977</v>
       </c>
       <c r="J115">
-        <v>113189</v>
+        <v>109748</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>464</v>
+        <v>303</v>
       </c>
       <c r="B116" t="s">
-        <v>3051</v>
+        <v>2855</v>
       </c>
       <c r="C116" t="s">
-        <v>3251</v>
+        <v>3098</v>
       </c>
       <c r="E116" t="s">
-        <v>3052</v>
+        <v>2856</v>
       </c>
       <c r="F116" t="s">
-        <v>2624</v>
+        <v>2486</v>
       </c>
       <c r="H116">
-        <v>25646</v>
+        <v>38054</v>
       </c>
       <c r="I116">
-        <v>206</v>
+        <v>-4561</v>
       </c>
       <c r="J116">
-        <v>113089</v>
+        <v>108700</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>237</v>
+        <v>301</v>
       </c>
       <c r="B117" t="s">
-        <v>59</v>
+        <v>3099</v>
       </c>
       <c r="C117" t="s">
-        <v>3252</v>
+        <v>3244</v>
       </c>
       <c r="E117" t="s">
-        <v>2783</v>
+        <v>2471</v>
       </c>
       <c r="F117" t="s">
-        <v>2591</v>
+        <v>2511</v>
       </c>
       <c r="H117">
-        <v>45600</v>
+        <v>38254</v>
       </c>
       <c r="I117">
-        <v>3614</v>
+        <v>-267</v>
       </c>
       <c r="J117">
-        <v>112000</v>
+        <v>107400</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118">
-        <v>126</v>
+        <v>261</v>
       </c>
       <c r="B118" t="s">
-        <v>2642</v>
+        <v>2810</v>
       </c>
       <c r="C118" t="s">
-        <v>3137</v>
+        <v>3100</v>
       </c>
       <c r="E118" t="s">
-        <v>2643</v>
+        <v>2497</v>
       </c>
       <c r="F118" t="s">
-        <v>2486</v>
+        <v>2779</v>
       </c>
       <c r="H118">
-        <v>71184</v>
+        <v>42031</v>
       </c>
       <c r="I118">
-        <v>5035</v>
+        <v>1933</v>
       </c>
       <c r="J118">
-        <v>111628</v>
+        <v>107012</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="B119" t="s">
-        <v>2743</v>
+        <v>2478</v>
       </c>
       <c r="C119" t="s">
-        <v>3253</v>
+        <v>3245</v>
       </c>
       <c r="E119" t="s">
-        <v>2651</v>
+        <v>2479</v>
       </c>
       <c r="F119" t="s">
-        <v>2529</v>
+        <v>2464</v>
       </c>
       <c r="H119">
-        <v>50855</v>
+        <v>221073</v>
       </c>
       <c r="I119">
-        <v>2733</v>
+        <v>2308</v>
       </c>
       <c r="J119">
-        <v>110487</v>
+        <v>106831</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120">
-        <v>43</v>
+        <v>458</v>
       </c>
       <c r="B120" t="s">
-        <v>2533</v>
+        <v>3045</v>
       </c>
       <c r="C120" t="s">
-        <v>3254</v>
+        <v>3246</v>
       </c>
       <c r="E120" t="s">
-        <v>2506</v>
+        <v>3046</v>
       </c>
       <c r="F120" t="s">
-        <v>2464</v>
+        <v>2474</v>
       </c>
       <c r="H120">
-        <v>122803</v>
+        <v>25937</v>
       </c>
       <c r="I120">
-        <v>4746</v>
+        <v>1367</v>
       </c>
       <c r="J120">
-        <v>110300</v>
+        <v>106696</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="B121" t="s">
-        <v>2606</v>
+        <v>2656</v>
       </c>
       <c r="C121" t="s">
-        <v>3255</v>
+        <v>3247</v>
       </c>
       <c r="E121" t="s">
-        <v>2550</v>
+        <v>2657</v>
       </c>
       <c r="F121" t="s">
-        <v>2474</v>
+        <v>2517</v>
       </c>
       <c r="H121">
-        <v>84771</v>
+        <v>67944</v>
       </c>
       <c r="I121">
-        <v>6977</v>
+        <v>9269</v>
       </c>
       <c r="J121">
-        <v>109748</v>
+        <v>105970</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="B122" t="s">
-        <v>2855</v>
+        <v>93</v>
       </c>
       <c r="C122" t="s">
-        <v>3098</v>
+        <v>3248</v>
       </c>
       <c r="E122" t="s">
-        <v>2856</v>
+        <v>2629</v>
       </c>
       <c r="F122" t="s">
-        <v>2486</v>
+        <v>2571</v>
       </c>
       <c r="H122">
-        <v>38054</v>
+        <v>34244</v>
       </c>
       <c r="I122">
-        <v>-4561</v>
+        <v>2184</v>
       </c>
       <c r="J122">
-        <v>108700</v>
+        <v>104000</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123">
-        <v>301</v>
+        <v>500</v>
       </c>
       <c r="B123" t="s">
-        <v>3099</v>
+        <v>3088</v>
       </c>
       <c r="C123" t="s">
-        <v>3256</v>
+        <v>3138</v>
       </c>
       <c r="E123" t="s">
-        <v>2471</v>
+        <v>2621</v>
       </c>
       <c r="F123" t="s">
-        <v>2511</v>
+        <v>2618</v>
       </c>
       <c r="H123">
-        <v>38254</v>
+        <v>23720</v>
       </c>
       <c r="I123">
-        <v>-267</v>
+        <v>54</v>
       </c>
       <c r="J123">
-        <v>107400</v>
+        <v>103594</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124">
-        <v>261</v>
+        <v>404</v>
       </c>
       <c r="B124" t="s">
-        <v>2810</v>
+        <v>2981</v>
       </c>
       <c r="C124" t="s">
-        <v>3100</v>
+        <v>3346</v>
       </c>
       <c r="E124" t="s">
-        <v>2497</v>
+        <v>2506</v>
       </c>
       <c r="F124" t="s">
-        <v>2779</v>
+        <v>2486</v>
       </c>
       <c r="H124">
-        <v>42031</v>
+        <v>29546</v>
       </c>
       <c r="I124">
-        <v>1933</v>
+        <v>106</v>
       </c>
       <c r="J124">
-        <v>107012</v>
+        <v>101072</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B125" t="s">
-        <v>2478</v>
+        <v>2480</v>
       </c>
       <c r="C125" t="s">
-        <v>3257</v>
+        <v>3249</v>
       </c>
       <c r="E125" t="s">
-        <v>2479</v>
+        <v>2481</v>
       </c>
       <c r="F125" t="s">
         <v>2464</v>
       </c>
       <c r="H125">
-        <v>221073</v>
+        <v>212018</v>
       </c>
       <c r="I125">
-        <v>2308</v>
+        <v>4244</v>
       </c>
       <c r="J125">
-        <v>106831</v>
+        <v>100307</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>458</v>
+        <v>392</v>
       </c>
       <c r="B126" t="s">
-        <v>3045</v>
+        <v>2967</v>
       </c>
       <c r="C126" t="s">
-        <v>3258</v>
+        <v>3139</v>
       </c>
       <c r="E126" t="s">
-        <v>3046</v>
+        <v>2465</v>
       </c>
       <c r="F126" t="s">
-        <v>2474</v>
+        <v>2464</v>
       </c>
       <c r="H126">
-        <v>25937</v>
+        <v>30206</v>
       </c>
       <c r="I126">
-        <v>1367</v>
+        <v>11</v>
       </c>
       <c r="J126">
-        <v>106696</v>
+        <v>100082</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>136</v>
+        <v>422</v>
       </c>
       <c r="B127" t="s">
-        <v>2656</v>
+        <v>3004</v>
       </c>
       <c r="C127" t="s">
-        <v>3259</v>
+        <v>3250</v>
       </c>
       <c r="E127" t="s">
-        <v>2657</v>
+        <v>2497</v>
       </c>
       <c r="F127" t="s">
-        <v>2517</v>
+        <v>2571</v>
       </c>
       <c r="H127">
-        <v>67944</v>
+        <v>28048</v>
       </c>
       <c r="I127">
-        <v>9269</v>
+        <v>1484</v>
       </c>
       <c r="J127">
-        <v>105970</v>
+        <v>99927</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>348</v>
+        <v>265</v>
       </c>
       <c r="B128" t="s">
-        <v>93</v>
+        <v>2815</v>
       </c>
       <c r="C128" t="s">
-        <v>3260</v>
+        <v>3251</v>
       </c>
       <c r="E128" t="s">
-        <v>2629</v>
+        <v>2465</v>
       </c>
       <c r="F128" t="s">
-        <v>2571</v>
+        <v>2580</v>
       </c>
       <c r="H128">
-        <v>34244</v>
+        <v>41813</v>
       </c>
       <c r="I128">
-        <v>2184</v>
+        <v>-185</v>
       </c>
       <c r="J128">
-        <v>104000</v>
+        <v>99247</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>500</v>
+        <v>444</v>
       </c>
       <c r="B129" t="s">
-        <v>3088</v>
+        <v>3029</v>
       </c>
       <c r="C129" t="s">
-        <v>3138</v>
+        <v>3252</v>
       </c>
       <c r="E129" t="s">
-        <v>2621</v>
+        <v>2525</v>
       </c>
       <c r="F129" t="s">
-        <v>2618</v>
+        <v>2484</v>
       </c>
       <c r="H129">
-        <v>23720</v>
+        <v>26699</v>
       </c>
       <c r="I129">
-        <v>54</v>
+        <v>521</v>
       </c>
       <c r="J129">
-        <v>103594</v>
+        <v>98882</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>404</v>
+        <v>268</v>
       </c>
       <c r="B130" t="s">
-        <v>2981</v>
+        <v>2819</v>
       </c>
       <c r="C130" t="s">
-        <v>3261</v>
+        <v>3253</v>
       </c>
       <c r="E130" t="s">
-        <v>2506</v>
+        <v>2820</v>
       </c>
       <c r="F130" t="s">
-        <v>2486</v>
+        <v>2474</v>
       </c>
       <c r="H130">
-        <v>29546</v>
+        <v>41230</v>
       </c>
       <c r="I130">
-        <v>106</v>
+        <v>305</v>
       </c>
       <c r="J130">
-        <v>101072</v>
+        <v>98697</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="B131" t="s">
-        <v>2480</v>
+        <v>2694</v>
       </c>
       <c r="C131" t="s">
-        <v>3262</v>
+        <v>3140</v>
       </c>
       <c r="E131" t="s">
-        <v>2481</v>
+        <v>2695</v>
       </c>
       <c r="F131" t="s">
-        <v>2464</v>
+        <v>2486</v>
       </c>
       <c r="H131">
-        <v>212018</v>
+        <v>61040</v>
       </c>
       <c r="I131">
-        <v>4244</v>
+        <v>2206</v>
       </c>
       <c r="J131">
-        <v>100307</v>
+        <v>98138</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>392</v>
+        <v>309</v>
       </c>
       <c r="B132" t="s">
-        <v>2967</v>
+        <v>2862</v>
       </c>
       <c r="C132" t="s">
-        <v>3139</v>
+        <v>3141</v>
       </c>
       <c r="E132" t="s">
-        <v>2465</v>
+        <v>2863</v>
       </c>
       <c r="F132" t="s">
-        <v>2464</v>
+        <v>2489</v>
       </c>
       <c r="H132">
-        <v>30206</v>
+        <v>37871</v>
       </c>
       <c r="I132">
-        <v>11</v>
+        <v>4536</v>
       </c>
       <c r="J132">
-        <v>100082</v>
+        <v>97921</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>422</v>
+        <v>20</v>
       </c>
       <c r="B133" t="s">
-        <v>3004</v>
+        <v>2496</v>
       </c>
       <c r="C133" t="s">
-        <v>3263</v>
+        <v>3254</v>
       </c>
       <c r="E133" t="s">
         <v>2497</v>
       </c>
       <c r="F133" t="s">
-        <v>2571</v>
+        <v>2486</v>
       </c>
       <c r="H133">
-        <v>28048</v>
+        <v>161173</v>
       </c>
       <c r="I133">
-        <v>1484</v>
+        <v>6664</v>
       </c>
       <c r="J133">
-        <v>99927</v>
+        <v>96279</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="B134" t="s">
-        <v>2815</v>
+        <v>2830</v>
       </c>
       <c r="C134" t="s">
-        <v>3264</v>
+        <v>3255</v>
       </c>
       <c r="E134" t="s">
         <v>2465</v>
       </c>
       <c r="F134" t="s">
-        <v>2580</v>
+        <v>2489</v>
       </c>
       <c r="H134">
-        <v>41813</v>
+        <v>40105</v>
       </c>
       <c r="I134">
-        <v>-185</v>
+        <v>439</v>
       </c>
       <c r="J134">
-        <v>99247</v>
+        <v>94743</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>444</v>
+        <v>365</v>
       </c>
       <c r="B135" t="s">
-        <v>3029</v>
+        <v>2933</v>
       </c>
       <c r="C135" t="s">
-        <v>3265</v>
+        <v>3101</v>
       </c>
       <c r="E135" t="s">
-        <v>2525</v>
+        <v>2497</v>
       </c>
       <c r="F135" t="s">
-        <v>2484</v>
+        <v>2624</v>
       </c>
       <c r="H135">
-        <v>26699</v>
+        <v>33120</v>
       </c>
       <c r="I135">
-        <v>521</v>
+        <v>-262</v>
       </c>
       <c r="J135">
-        <v>98882</v>
+        <v>94666</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>268</v>
+        <v>366</v>
       </c>
       <c r="B136" t="s">
-        <v>2819</v>
+        <v>2933</v>
       </c>
       <c r="C136" t="s">
-        <v>3266</v>
+        <v>3102</v>
       </c>
       <c r="E136" t="s">
-        <v>2820</v>
+        <v>2497</v>
       </c>
       <c r="F136" t="s">
-        <v>2474</v>
+        <v>2624</v>
       </c>
       <c r="H136">
-        <v>41230</v>
+        <v>33120</v>
       </c>
       <c r="I136">
-        <v>305</v>
+        <v>-262</v>
       </c>
       <c r="J136">
-        <v>98697</v>
+        <v>94666</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137">
-        <v>164</v>
+        <v>3</v>
       </c>
       <c r="B137" t="s">
-        <v>2694</v>
+        <v>2466</v>
       </c>
       <c r="C137" t="s">
-        <v>3140</v>
+        <v>3103</v>
       </c>
       <c r="E137" t="s">
-        <v>2695</v>
+        <v>2467</v>
       </c>
       <c r="F137" t="s">
-        <v>2486</v>
+        <v>2464</v>
       </c>
       <c r="H137">
-        <v>61040</v>
+        <v>431344</v>
       </c>
       <c r="I137">
-        <v>2206</v>
+        <v>14874</v>
       </c>
       <c r="J137">
-        <v>98138</v>
+        <v>94000</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="B138" t="s">
-        <v>2862</v>
+        <v>2947</v>
       </c>
       <c r="C138" t="s">
-        <v>3141</v>
+        <v>3256</v>
       </c>
       <c r="E138" t="s">
-        <v>2863</v>
+        <v>2538</v>
       </c>
       <c r="F138" t="s">
-        <v>2489</v>
+        <v>2464</v>
       </c>
       <c r="H138">
-        <v>37871</v>
+        <v>31533</v>
       </c>
       <c r="I138">
-        <v>4536</v>
+        <v>-3519</v>
       </c>
       <c r="J138">
-        <v>97921</v>
+        <v>93942</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="B139" t="s">
-        <v>2496</v>
+        <v>2554</v>
       </c>
       <c r="C139" t="s">
-        <v>3267</v>
+        <v>1297</v>
       </c>
       <c r="E139" t="s">
-        <v>2497</v>
+        <v>2555</v>
       </c>
       <c r="F139" t="s">
-        <v>2486</v>
+        <v>2474</v>
       </c>
       <c r="H139">
-        <v>161173</v>
+        <v>102248</v>
       </c>
       <c r="I139">
-        <v>6664</v>
+        <v>4540</v>
       </c>
       <c r="J139">
-        <v>96279</v>
+        <v>92484</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="B140" t="s">
-        <v>2830</v>
+        <v>2800</v>
       </c>
       <c r="C140" t="s">
-        <v>3268</v>
+        <v>3257</v>
       </c>
       <c r="E140" t="s">
-        <v>2465</v>
+        <v>2801</v>
       </c>
       <c r="F140" t="s">
-        <v>2489</v>
+        <v>2571</v>
       </c>
       <c r="H140">
-        <v>40105</v>
+        <v>43084</v>
       </c>
       <c r="I140">
-        <v>439</v>
+        <v>1156</v>
       </c>
       <c r="J140">
-        <v>94743</v>
+        <v>92000</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>365</v>
+        <v>482</v>
       </c>
       <c r="B141" t="s">
-        <v>2933</v>
+        <v>3071</v>
       </c>
       <c r="C141" t="s">
-        <v>3101</v>
+        <v>3258</v>
       </c>
       <c r="E141" t="s">
-        <v>2497</v>
+        <v>3072</v>
       </c>
       <c r="F141" t="s">
-        <v>2624</v>
+        <v>2560</v>
       </c>
       <c r="H141">
-        <v>33120</v>
+        <v>24564</v>
       </c>
       <c r="I141">
-        <v>-262</v>
+        <v>-906</v>
       </c>
       <c r="J141">
-        <v>94666</v>
+        <v>90365</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>366</v>
+        <v>173</v>
       </c>
       <c r="B142" t="s">
-        <v>2933</v>
+        <v>2705</v>
       </c>
       <c r="C142" t="s">
-        <v>3102</v>
+        <v>3350</v>
       </c>
       <c r="E142" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
       <c r="F142" t="s">
-        <v>2624</v>
+        <v>2486</v>
       </c>
       <c r="H142">
-        <v>33120</v>
+        <v>57070</v>
       </c>
       <c r="I142">
-        <v>-262</v>
+        <v>1659</v>
       </c>
       <c r="J142">
-        <v>94666</v>
+        <v>89486</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>3</v>
+        <v>189</v>
       </c>
       <c r="B143" t="s">
-        <v>2466</v>
+        <v>2722</v>
       </c>
       <c r="C143" t="s">
-        <v>3103</v>
+        <v>3259</v>
       </c>
       <c r="E143" t="s">
-        <v>2467</v>
+        <v>2699</v>
       </c>
       <c r="F143" t="s">
-        <v>2464</v>
+        <v>2489</v>
       </c>
       <c r="H143">
-        <v>431344</v>
+        <v>54494</v>
       </c>
       <c r="I143">
-        <v>14874</v>
+        <v>10198</v>
       </c>
       <c r="J143">
-        <v>94000</v>
+        <v>88509</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="B144" t="s">
-        <v>2947</v>
+        <v>2992</v>
       </c>
       <c r="C144" t="s">
-        <v>3269</v>
+        <v>3260</v>
       </c>
       <c r="E144" t="s">
-        <v>2538</v>
+        <v>2471</v>
       </c>
       <c r="F144" t="s">
-        <v>2464</v>
+        <v>2517</v>
       </c>
       <c r="H144">
-        <v>31533</v>
+        <v>28928</v>
       </c>
       <c r="I144">
-        <v>-3519</v>
+        <v>3435</v>
       </c>
       <c r="J144">
-        <v>93942</v>
+        <v>88500</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>60</v>
+        <v>431</v>
       </c>
       <c r="B145" t="s">
-        <v>2554</v>
+        <v>3015</v>
       </c>
       <c r="C145" t="s">
-        <v>1297</v>
+        <v>3261</v>
       </c>
       <c r="E145" t="s">
-        <v>2555</v>
+        <v>3016</v>
       </c>
       <c r="F145" t="s">
-        <v>2474</v>
+        <v>2511</v>
       </c>
       <c r="H145">
-        <v>102248</v>
+        <v>27483</v>
       </c>
       <c r="I145">
-        <v>4540</v>
+        <v>-1243</v>
       </c>
       <c r="J145">
-        <v>92484</v>
+        <v>85545</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146">
-        <v>252</v>
+        <v>6</v>
       </c>
       <c r="B146" t="s">
-        <v>2800</v>
+        <v>2470</v>
       </c>
       <c r="C146" t="s">
-        <v>3270</v>
+        <v>3262</v>
       </c>
       <c r="E146" t="s">
-        <v>2801</v>
+        <v>2471</v>
       </c>
       <c r="F146" t="s">
-        <v>2571</v>
+        <v>2464</v>
       </c>
       <c r="H146">
-        <v>43084</v>
+        <v>358678</v>
       </c>
       <c r="I146">
-        <v>1156</v>
+        <v>3780</v>
       </c>
       <c r="J146">
-        <v>92000</v>
+        <v>84500</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147">
-        <v>482</v>
+        <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>3071</v>
+        <v>2668</v>
       </c>
       <c r="C147" t="s">
-        <v>3271</v>
+        <v>3263</v>
       </c>
       <c r="E147" t="s">
-        <v>3072</v>
+        <v>2471</v>
       </c>
       <c r="F147" t="s">
-        <v>2560</v>
+        <v>2486</v>
       </c>
       <c r="H147">
-        <v>24564</v>
+        <v>65591</v>
       </c>
       <c r="I147">
-        <v>-906</v>
+        <v>2324</v>
       </c>
       <c r="J147">
-        <v>90365</v>
+        <v>84490</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="B148" t="s">
-        <v>2705</v>
+        <v>2503</v>
       </c>
       <c r="C148" t="s">
-        <v>3272</v>
+        <v>3264</v>
       </c>
       <c r="E148" t="s">
-        <v>2495</v>
+        <v>2504</v>
       </c>
       <c r="F148" t="s">
-        <v>2486</v>
+        <v>2464</v>
       </c>
       <c r="H148">
-        <v>57070</v>
+        <v>147175</v>
       </c>
       <c r="I148">
-        <v>1659</v>
+        <v>1712</v>
       </c>
       <c r="J148">
-        <v>89486</v>
+        <v>84405</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B149" t="s">
-        <v>2722</v>
+        <v>2707</v>
       </c>
       <c r="C149" t="s">
-        <v>3273</v>
+        <v>3265</v>
       </c>
       <c r="E149" t="s">
-        <v>2699</v>
+        <v>2550</v>
       </c>
       <c r="F149" t="s">
-        <v>2489</v>
+        <v>2484</v>
       </c>
       <c r="H149">
-        <v>54494</v>
+        <v>57038</v>
       </c>
       <c r="I149">
-        <v>10198</v>
+        <v>379</v>
       </c>
       <c r="J149">
-        <v>88509</v>
+        <v>83000</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>411</v>
+        <v>319</v>
       </c>
       <c r="B150" t="s">
-        <v>2992</v>
+        <v>2878</v>
       </c>
       <c r="C150" t="s">
-        <v>3274</v>
+        <v>3364</v>
       </c>
       <c r="E150" t="s">
-        <v>2471</v>
+        <v>2525</v>
       </c>
       <c r="F150" t="s">
-        <v>2517</v>
+        <v>2560</v>
       </c>
       <c r="H150">
-        <v>28928</v>
+        <v>36309</v>
       </c>
       <c r="I150">
-        <v>3435</v>
+        <v>1004</v>
       </c>
       <c r="J150">
-        <v>88500</v>
+        <v>81845</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151">
-        <v>431</v>
+        <v>57</v>
       </c>
       <c r="B151" t="s">
-        <v>3015</v>
+        <v>2549</v>
       </c>
       <c r="C151" t="s">
-        <v>3275</v>
+        <v>3266</v>
       </c>
       <c r="E151" t="s">
-        <v>3016</v>
+        <v>2550</v>
       </c>
       <c r="F151" t="s">
-        <v>2511</v>
+        <v>2464</v>
       </c>
       <c r="H151">
-        <v>27483</v>
+        <v>106248</v>
       </c>
       <c r="I151">
-        <v>-1243</v>
+        <v>-506</v>
       </c>
       <c r="J151">
-        <v>85545</v>
+        <v>81667</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>6</v>
+        <v>357</v>
       </c>
       <c r="B152" t="s">
-        <v>2470</v>
+        <v>2921</v>
       </c>
       <c r="C152" t="s">
-        <v>3276</v>
+        <v>3143</v>
       </c>
       <c r="E152" t="s">
-        <v>2471</v>
+        <v>2752</v>
       </c>
       <c r="F152" t="s">
-        <v>2464</v>
+        <v>2486</v>
       </c>
       <c r="H152">
-        <v>358678</v>
+        <v>33309</v>
       </c>
       <c r="I152">
-        <v>3780</v>
+        <v>7134</v>
       </c>
       <c r="J152">
-        <v>84500</v>
+        <v>81137</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153">
-        <v>145</v>
+        <v>28</v>
       </c>
       <c r="B153" t="s">
-        <v>2668</v>
+        <v>2508</v>
       </c>
       <c r="C153" t="s">
-        <v>3277</v>
+        <v>3267</v>
       </c>
       <c r="E153" t="s">
-        <v>2471</v>
+        <v>2509</v>
       </c>
       <c r="F153" t="s">
-        <v>2486</v>
+        <v>2464</v>
       </c>
       <c r="H153">
-        <v>65591</v>
+        <v>143657</v>
       </c>
       <c r="I153">
-        <v>2324</v>
+        <v>-7367</v>
       </c>
       <c r="J153">
-        <v>84490</v>
+        <v>80908</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>25</v>
+        <v>395</v>
       </c>
       <c r="B154" t="s">
-        <v>2503</v>
+        <v>3104</v>
       </c>
       <c r="C154" t="s">
-        <v>3278</v>
+        <v>3268</v>
       </c>
       <c r="E154" t="s">
-        <v>2504</v>
+        <v>2972</v>
       </c>
       <c r="F154" t="s">
-        <v>2464</v>
+        <v>2607</v>
       </c>
       <c r="H154">
-        <v>147175</v>
+        <v>29889</v>
       </c>
       <c r="I154">
-        <v>1712</v>
+        <v>6513</v>
       </c>
       <c r="J154">
-        <v>84405</v>
+        <v>78611</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155">
-        <v>5</v>
+        <v>469</v>
       </c>
       <c r="B155" t="s">
-        <v>2</v>
+        <v>3057</v>
       </c>
       <c r="C155" t="s">
-        <v>3279</v>
+        <v>3269</v>
       </c>
       <c r="E155" t="s">
-        <v>2469</v>
+        <v>2777</v>
       </c>
       <c r="F155" t="s">
-        <v>2464</v>
+        <v>2999</v>
       </c>
       <c r="H155">
-        <v>382597</v>
+        <v>25385</v>
       </c>
       <c r="I155">
-        <v>32520</v>
+        <v>142</v>
       </c>
       <c r="J155">
-        <v>83700</v>
+        <v>77309</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>175</v>
+        <v>312</v>
       </c>
       <c r="B156" t="s">
-        <v>2707</v>
+        <v>2866</v>
       </c>
       <c r="C156" t="s">
-        <v>3280</v>
+        <v>3270</v>
       </c>
       <c r="E156" t="s">
-        <v>2550</v>
+        <v>2509</v>
       </c>
       <c r="F156" t="s">
-        <v>2484</v>
+        <v>2464</v>
       </c>
       <c r="H156">
-        <v>57038</v>
+        <v>37539</v>
       </c>
       <c r="I156">
-        <v>379</v>
+        <v>657</v>
       </c>
       <c r="J156">
-        <v>83000</v>
+        <v>76531</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>319</v>
+        <v>463</v>
       </c>
       <c r="B157" t="s">
-        <v>2878</v>
+        <v>3050</v>
       </c>
       <c r="C157" t="s">
-        <v>3142</v>
+        <v>3271</v>
       </c>
       <c r="E157" t="s">
-        <v>2525</v>
+        <v>2530</v>
       </c>
       <c r="F157" t="s">
-        <v>2560</v>
+        <v>2571</v>
       </c>
       <c r="H157">
-        <v>36309</v>
+        <v>25668</v>
       </c>
       <c r="I157">
-        <v>1004</v>
+        <v>1008</v>
       </c>
       <c r="J157">
-        <v>81845</v>
+        <v>76136</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>57</v>
+        <v>468</v>
       </c>
       <c r="B158" t="s">
-        <v>2549</v>
+        <v>3056</v>
       </c>
       <c r="C158" t="s">
-        <v>3281</v>
+        <v>3272</v>
       </c>
       <c r="E158" t="s">
-        <v>2550</v>
+        <v>2471</v>
       </c>
       <c r="F158" t="s">
-        <v>2464</v>
+        <v>2591</v>
       </c>
       <c r="H158">
-        <v>106248</v>
+        <v>25400</v>
       </c>
       <c r="I158">
-        <v>-506</v>
+        <v>1218</v>
       </c>
       <c r="J158">
-        <v>81667</v>
+        <v>76000</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>357</v>
+        <v>475</v>
       </c>
       <c r="B159" t="s">
-        <v>2921</v>
+        <v>3064</v>
       </c>
       <c r="C159" t="s">
-        <v>3143</v>
+        <v>3273</v>
       </c>
       <c r="E159" t="s">
-        <v>2752</v>
+        <v>2944</v>
       </c>
       <c r="F159" t="s">
-        <v>2486</v>
+        <v>2618</v>
       </c>
       <c r="H159">
-        <v>33309</v>
+        <v>25087</v>
       </c>
       <c r="I159">
-        <v>7134</v>
+        <v>772</v>
       </c>
       <c r="J159">
-        <v>81137</v>
+        <v>75706</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="B160" t="s">
-        <v>2508</v>
+        <v>2803</v>
       </c>
       <c r="C160" t="s">
-        <v>3282</v>
+        <v>3274</v>
       </c>
       <c r="E160" t="s">
-        <v>2509</v>
+        <v>2688</v>
       </c>
       <c r="F160" t="s">
-        <v>2464</v>
+        <v>2474</v>
       </c>
       <c r="H160">
-        <v>143657</v>
+        <v>42975</v>
       </c>
       <c r="I160">
-        <v>-7367</v>
+        <v>2287</v>
       </c>
       <c r="J160">
-        <v>80908</v>
+        <v>75502</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="B161" t="s">
-        <v>3104</v>
+        <v>2912</v>
       </c>
       <c r="C161" t="s">
-        <v>3283</v>
+        <v>3182</v>
       </c>
       <c r="E161" t="s">
-        <v>2972</v>
+        <v>2525</v>
       </c>
       <c r="F161" t="s">
-        <v>2607</v>
+        <v>2529</v>
       </c>
       <c r="H161">
-        <v>29889</v>
+        <v>34218</v>
       </c>
       <c r="I161">
-        <v>6513</v>
+        <v>-665</v>
       </c>
       <c r="J161">
-        <v>78611</v>
+        <v>75448</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>469</v>
+        <v>397</v>
       </c>
       <c r="B162" t="s">
-        <v>3057</v>
+        <v>2974</v>
       </c>
       <c r="C162" t="s">
-        <v>3284</v>
+        <v>3275</v>
       </c>
       <c r="E162" t="s">
-        <v>2777</v>
+        <v>2638</v>
       </c>
       <c r="F162" t="s">
-        <v>2999</v>
+        <v>2511</v>
       </c>
       <c r="H162">
-        <v>25385</v>
+        <v>29825</v>
       </c>
       <c r="I162">
-        <v>142</v>
+        <v>970</v>
       </c>
       <c r="J162">
-        <v>77309</v>
+        <v>74262</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B163" t="s">
-        <v>2866</v>
+        <v>2852</v>
       </c>
       <c r="C163" t="s">
-        <v>3285</v>
+        <v>3105</v>
       </c>
       <c r="E163" t="s">
-        <v>2509</v>
+        <v>2752</v>
       </c>
       <c r="F163" t="s">
-        <v>2464</v>
+        <v>2486</v>
       </c>
       <c r="H163">
-        <v>37539</v>
+        <v>38544</v>
       </c>
       <c r="I163">
-        <v>657</v>
+        <v>8261</v>
       </c>
       <c r="J163">
-        <v>76531</v>
+        <v>73498</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>463</v>
+        <v>58</v>
       </c>
       <c r="B164" t="s">
-        <v>3050</v>
+        <v>2551</v>
       </c>
       <c r="C164" t="s">
-        <v>3286</v>
+        <v>3144</v>
       </c>
       <c r="E164" t="s">
-        <v>2530</v>
+        <v>2497</v>
       </c>
       <c r="F164" t="s">
-        <v>2571</v>
+        <v>2486</v>
       </c>
       <c r="H164">
-        <v>25668</v>
+        <v>106198</v>
       </c>
       <c r="I164">
-        <v>1008</v>
+        <v>3104</v>
       </c>
       <c r="J164">
-        <v>76136</v>
+        <v>72567</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165">
-        <v>468</v>
+        <v>132</v>
       </c>
       <c r="B165" t="s">
-        <v>3056</v>
+        <v>2652</v>
       </c>
       <c r="C165" t="s">
-        <v>3287</v>
+        <v>3223</v>
       </c>
       <c r="E165" t="s">
-        <v>2471</v>
+        <v>2525</v>
       </c>
       <c r="F165" t="s">
-        <v>2591</v>
+        <v>2529</v>
       </c>
       <c r="H165">
-        <v>25400</v>
+        <v>69755</v>
       </c>
       <c r="I165">
-        <v>1218</v>
+        <v>3643</v>
       </c>
       <c r="J165">
-        <v>76000</v>
+        <v>71994</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>475</v>
+        <v>69</v>
       </c>
       <c r="B166" t="s">
-        <v>3064</v>
+        <v>2569</v>
       </c>
       <c r="C166" t="s">
-        <v>3288</v>
+        <v>3276</v>
       </c>
       <c r="E166" t="s">
-        <v>2944</v>
+        <v>2504</v>
       </c>
       <c r="F166" t="s">
-        <v>2618</v>
+        <v>2464</v>
       </c>
       <c r="H166">
-        <v>25087</v>
+        <v>100539</v>
       </c>
       <c r="I166">
-        <v>772</v>
+        <v>685</v>
       </c>
       <c r="J166">
-        <v>75706</v>
+        <v>68961</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="B167" t="s">
-        <v>2803</v>
+        <v>2596</v>
       </c>
       <c r="C167" t="s">
-        <v>3289</v>
+        <v>3277</v>
       </c>
       <c r="E167" t="s">
-        <v>2688</v>
+        <v>2530</v>
       </c>
       <c r="F167" t="s">
-        <v>2474</v>
+        <v>2486</v>
       </c>
       <c r="H167">
-        <v>42975</v>
+        <v>87990</v>
       </c>
       <c r="I167">
-        <v>2287</v>
+        <v>1277</v>
       </c>
       <c r="J167">
-        <v>75502</v>
+        <v>68431</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B168" t="s">
-        <v>2912</v>
+        <v>2907</v>
       </c>
       <c r="C168" t="s">
-        <v>3189</v>
+        <v>3145</v>
       </c>
       <c r="E168" t="s">
-        <v>2525</v>
+        <v>2465</v>
       </c>
       <c r="F168" t="s">
-        <v>2529</v>
+        <v>2618</v>
       </c>
       <c r="H168">
-        <v>34218</v>
+        <v>34497</v>
       </c>
       <c r="I168">
-        <v>-665</v>
+        <v>439</v>
       </c>
       <c r="J168">
-        <v>75448</v>
+        <v>67897</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>397</v>
+        <v>304</v>
       </c>
       <c r="B169" t="s">
-        <v>2974</v>
+        <v>2857</v>
       </c>
       <c r="C169" t="s">
-        <v>3290</v>
+        <v>3278</v>
       </c>
       <c r="E169" t="s">
-        <v>2638</v>
+        <v>2670</v>
       </c>
       <c r="F169" t="s">
-        <v>2511</v>
+        <v>2618</v>
       </c>
       <c r="H169">
-        <v>29825</v>
+        <v>37986</v>
       </c>
       <c r="I169">
-        <v>970</v>
+        <v>38</v>
       </c>
       <c r="J169">
-        <v>74262</v>
+        <v>67151</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170">
-        <v>299</v>
+        <v>110</v>
       </c>
       <c r="B170" t="s">
-        <v>2852</v>
+        <v>2622</v>
       </c>
       <c r="C170" t="s">
-        <v>3105</v>
+        <v>3279</v>
       </c>
       <c r="E170" t="s">
-        <v>2752</v>
+        <v>2525</v>
       </c>
       <c r="F170" t="s">
-        <v>2486</v>
+        <v>2517</v>
       </c>
       <c r="H170">
-        <v>38544</v>
+        <v>78857</v>
       </c>
       <c r="I170">
-        <v>8261</v>
+        <v>6078</v>
       </c>
       <c r="J170">
-        <v>73498</v>
+        <v>66154</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171">
-        <v>58</v>
+        <v>401</v>
       </c>
       <c r="B171" t="s">
-        <v>2551</v>
+        <v>2978</v>
       </c>
       <c r="C171" t="s">
-        <v>3144</v>
+        <v>3359</v>
       </c>
       <c r="E171" t="s">
-        <v>2497</v>
+        <v>2699</v>
       </c>
       <c r="F171" t="s">
-        <v>2486</v>
+        <v>2511</v>
       </c>
       <c r="H171">
-        <v>106198</v>
+        <v>29684</v>
       </c>
       <c r="I171">
-        <v>3104</v>
+        <v>513</v>
       </c>
       <c r="J171">
-        <v>72567</v>
+        <v>66125</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172">
-        <v>132</v>
+        <v>423</v>
       </c>
       <c r="B172" t="s">
-        <v>2652</v>
+        <v>3005</v>
       </c>
       <c r="C172" t="s">
-        <v>3234</v>
+        <v>3280</v>
       </c>
       <c r="E172" t="s">
-        <v>2525</v>
+        <v>2873</v>
       </c>
       <c r="F172" t="s">
-        <v>2529</v>
+        <v>2484</v>
       </c>
       <c r="H172">
-        <v>69755</v>
+        <v>27909</v>
       </c>
       <c r="I172">
-        <v>3643</v>
+        <v>232</v>
       </c>
       <c r="J172">
-        <v>71994</v>
+        <v>64473</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173">
-        <v>69</v>
+        <v>362</v>
       </c>
       <c r="B173" t="s">
-        <v>2569</v>
+        <v>2928</v>
       </c>
       <c r="C173" t="s">
-        <v>3291</v>
+        <v>3146</v>
       </c>
       <c r="E173" t="s">
-        <v>2504</v>
+        <v>2628</v>
       </c>
       <c r="F173" t="s">
-        <v>2464</v>
+        <v>2474</v>
       </c>
       <c r="H173">
-        <v>100539</v>
+        <v>33237</v>
       </c>
       <c r="I173">
-        <v>685</v>
+        <v>284</v>
       </c>
       <c r="J173">
-        <v>68961</v>
+        <v>63405</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174">
-        <v>91</v>
+        <v>466</v>
       </c>
       <c r="B174" t="s">
-        <v>2596</v>
+        <v>3054</v>
       </c>
       <c r="C174" t="s">
-        <v>3292</v>
+        <v>3106</v>
       </c>
       <c r="E174" t="s">
-        <v>2530</v>
+        <v>2471</v>
       </c>
       <c r="F174" t="s">
         <v>2486</v>
       </c>
       <c r="H174">
-        <v>87990</v>
+        <v>25479</v>
       </c>
       <c r="I174">
-        <v>1277</v>
+        <v>958</v>
       </c>
       <c r="J174">
-        <v>68431</v>
+        <v>61583</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175">
-        <v>344</v>
+        <v>400</v>
       </c>
       <c r="B175" t="s">
-        <v>2907</v>
+        <v>2976</v>
       </c>
       <c r="C175" t="s">
-        <v>3145</v>
+        <v>3281</v>
       </c>
       <c r="E175" t="s">
-        <v>2465</v>
+        <v>2977</v>
       </c>
       <c r="F175" t="s">
-        <v>2618</v>
+        <v>2464</v>
       </c>
       <c r="H175">
-        <v>34497</v>
+        <v>29727</v>
       </c>
       <c r="I175">
-        <v>439</v>
+        <v>-478</v>
       </c>
       <c r="J175">
-        <v>67897</v>
+        <v>61539</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B176" t="s">
-        <v>2857</v>
+        <v>2861</v>
       </c>
       <c r="C176" t="s">
-        <v>3293</v>
+        <v>3282</v>
       </c>
       <c r="E176" t="s">
-        <v>2670</v>
+        <v>2638</v>
       </c>
       <c r="F176" t="s">
-        <v>2618</v>
+        <v>2486</v>
       </c>
       <c r="H176">
-        <v>37986</v>
+        <v>37883</v>
       </c>
       <c r="I176">
-        <v>38</v>
+        <v>3942</v>
       </c>
       <c r="J176">
-        <v>67151</v>
+        <v>60155</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>110</v>
+        <v>231</v>
       </c>
       <c r="B177" t="s">
-        <v>2622</v>
+        <v>2775</v>
       </c>
       <c r="C177" t="s">
-        <v>3294</v>
+        <v>3283</v>
       </c>
       <c r="E177" t="s">
-        <v>2525</v>
+        <v>2583</v>
       </c>
       <c r="F177" t="s">
-        <v>2517</v>
+        <v>2484</v>
       </c>
       <c r="H177">
-        <v>78857</v>
+        <v>46295</v>
       </c>
       <c r="I177">
-        <v>6078</v>
+        <v>828</v>
       </c>
       <c r="J177">
-        <v>66154</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>401</v>
+        <v>154</v>
       </c>
       <c r="B178" t="s">
-        <v>2978</v>
+        <v>2680</v>
       </c>
       <c r="C178" t="s">
-        <v>3295</v>
+        <v>3284</v>
       </c>
       <c r="E178" t="s">
-        <v>2699</v>
+        <v>2681</v>
       </c>
       <c r="F178" t="s">
-        <v>2511</v>
+        <v>2464</v>
       </c>
       <c r="H178">
-        <v>29684</v>
+        <v>63912</v>
       </c>
       <c r="I178">
-        <v>513</v>
+        <v>2403</v>
       </c>
       <c r="J178">
-        <v>66125</v>
+        <v>59784</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179">
-        <v>423</v>
+        <v>222</v>
       </c>
       <c r="B179" t="s">
-        <v>3005</v>
+        <v>2765</v>
       </c>
       <c r="C179" t="s">
-        <v>3296</v>
+        <v>3107</v>
       </c>
       <c r="E179" t="s">
-        <v>2873</v>
+        <v>2471</v>
       </c>
       <c r="F179" t="s">
-        <v>2484</v>
+        <v>2464</v>
       </c>
       <c r="H179">
-        <v>27909</v>
+        <v>47664</v>
       </c>
       <c r="I179">
-        <v>232</v>
+        <v>6527</v>
       </c>
       <c r="J179">
-        <v>64473</v>
+        <v>59775</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="B180" t="s">
-        <v>2928</v>
+        <v>2898</v>
       </c>
       <c r="C180" t="s">
-        <v>3146</v>
+        <v>3285</v>
       </c>
       <c r="E180" t="s">
-        <v>2628</v>
+        <v>2525</v>
       </c>
       <c r="F180" t="s">
-        <v>2474</v>
+        <v>2618</v>
       </c>
       <c r="H180">
-        <v>33237</v>
+        <v>35019</v>
       </c>
       <c r="I180">
-        <v>284</v>
+        <v>1267</v>
       </c>
       <c r="J180">
-        <v>63405</v>
+        <v>58856</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="B181" t="s">
-        <v>3054</v>
+        <v>3042</v>
       </c>
       <c r="C181" t="s">
-        <v>3106</v>
+        <v>3286</v>
       </c>
       <c r="E181" t="s">
         <v>2471</v>
       </c>
       <c r="F181" t="s">
-        <v>2486</v>
+        <v>2489</v>
       </c>
       <c r="H181">
-        <v>25479</v>
+        <v>26095</v>
       </c>
       <c r="I181">
-        <v>958</v>
+        <v>1233</v>
       </c>
       <c r="J181">
-        <v>61583</v>
+        <v>57500</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182">
-        <v>400</v>
+        <v>436</v>
       </c>
       <c r="B182" t="s">
-        <v>2976</v>
+        <v>3019</v>
       </c>
       <c r="C182" t="s">
-        <v>3297</v>
+        <v>3287</v>
       </c>
       <c r="E182" t="s">
-        <v>2977</v>
+        <v>3020</v>
       </c>
       <c r="F182" t="s">
-        <v>2464</v>
+        <v>2474</v>
       </c>
       <c r="H182">
-        <v>29727</v>
+        <v>27426</v>
       </c>
       <c r="I182">
-        <v>-478</v>
+        <v>881</v>
       </c>
       <c r="J182">
-        <v>61539</v>
+        <v>57409</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183">
-        <v>308</v>
+        <v>412</v>
       </c>
       <c r="B183" t="s">
-        <v>2861</v>
+        <v>2993</v>
       </c>
       <c r="C183" t="s">
-        <v>3298</v>
+        <v>3288</v>
       </c>
       <c r="E183" t="s">
-        <v>2638</v>
+        <v>2525</v>
       </c>
       <c r="F183" t="s">
         <v>2486</v>
       </c>
       <c r="H183">
-        <v>37883</v>
+        <v>28924</v>
       </c>
       <c r="I183">
-        <v>3942</v>
+        <v>5565</v>
       </c>
       <c r="J183">
-        <v>60155</v>
+        <v>54784</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>231</v>
+        <v>105</v>
       </c>
       <c r="B184" t="s">
-        <v>2775</v>
+        <v>2612</v>
       </c>
       <c r="C184" t="s">
-        <v>3299</v>
+        <v>3289</v>
       </c>
       <c r="E184" t="s">
-        <v>2583</v>
+        <v>2465</v>
       </c>
       <c r="F184" t="s">
-        <v>2484</v>
+        <v>2529</v>
       </c>
       <c r="H184">
-        <v>46295</v>
+        <v>80635</v>
       </c>
       <c r="I184">
-        <v>828</v>
+        <v>562</v>
       </c>
       <c r="J184">
-        <v>60000</v>
+        <v>54742</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>154</v>
+        <v>498</v>
       </c>
       <c r="B185" t="s">
-        <v>2680</v>
+        <v>3086</v>
       </c>
       <c r="C185" t="s">
-        <v>3300</v>
+        <v>3290</v>
       </c>
       <c r="E185" t="s">
-        <v>2681</v>
+        <v>2471</v>
       </c>
       <c r="F185" t="s">
-        <v>2464</v>
+        <v>2591</v>
       </c>
       <c r="H185">
-        <v>63912</v>
+        <v>23785</v>
       </c>
       <c r="I185">
-        <v>2403</v>
+        <v>113</v>
       </c>
       <c r="J185">
-        <v>59784</v>
+        <v>54100</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="B186" t="s">
-        <v>2765</v>
+        <v>2665</v>
       </c>
       <c r="C186" t="s">
-        <v>3107</v>
+        <v>3291</v>
       </c>
       <c r="E186" t="s">
-        <v>2471</v>
+        <v>2525</v>
       </c>
       <c r="F186" t="s">
-        <v>2464</v>
+        <v>2486</v>
       </c>
       <c r="H186">
-        <v>47664</v>
+        <v>65960</v>
       </c>
       <c r="I186">
-        <v>6527</v>
+        <v>1295</v>
       </c>
       <c r="J186">
-        <v>59775</v>
+        <v>54090</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>323</v>
+        <v>68</v>
       </c>
       <c r="B187" t="s">
-        <v>96</v>
+        <v>2567</v>
       </c>
       <c r="C187" t="s">
-        <v>1163</v>
+        <v>3292</v>
       </c>
       <c r="E187" t="s">
-        <v>2883</v>
+        <v>2568</v>
       </c>
       <c r="F187" t="s">
-        <v>2560</v>
+        <v>2464</v>
       </c>
       <c r="H187">
-        <v>36066</v>
+        <v>100618</v>
       </c>
       <c r="I187">
-        <v>3161</v>
+        <v>11322</v>
       </c>
       <c r="J187">
-        <v>59623</v>
+        <v>50949</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>337</v>
+        <v>271</v>
       </c>
       <c r="B188" t="s">
-        <v>2898</v>
+        <v>2824</v>
       </c>
       <c r="C188" t="s">
-        <v>3301</v>
+        <v>3147</v>
       </c>
       <c r="E188" t="s">
-        <v>2525</v>
+        <v>2825</v>
       </c>
       <c r="F188" t="s">
-        <v>2618</v>
+        <v>2486</v>
       </c>
       <c r="H188">
-        <v>35019</v>
+        <v>40594</v>
       </c>
       <c r="I188">
-        <v>1267</v>
+        <v>7650</v>
       </c>
       <c r="J188">
-        <v>58856</v>
+        <v>50214</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>455</v>
+        <v>473</v>
       </c>
       <c r="B189" t="s">
-        <v>3042</v>
+        <v>3062</v>
       </c>
       <c r="C189" t="s">
-        <v>3302</v>
+        <v>3265</v>
       </c>
       <c r="E189" t="s">
-        <v>2471</v>
+        <v>2550</v>
       </c>
       <c r="F189" t="s">
-        <v>2489</v>
+        <v>2484</v>
       </c>
       <c r="H189">
-        <v>26095</v>
+        <v>25126</v>
       </c>
       <c r="I189">
-        <v>1233</v>
+        <v>858</v>
       </c>
       <c r="J189">
-        <v>57500</v>
+        <v>49421</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="B190" t="s">
-        <v>3019</v>
+        <v>3058</v>
       </c>
       <c r="C190" t="s">
-        <v>3303</v>
+        <v>3293</v>
       </c>
       <c r="E190" t="s">
-        <v>3020</v>
+        <v>2651</v>
       </c>
       <c r="F190" t="s">
-        <v>2474</v>
+        <v>2484</v>
       </c>
       <c r="H190">
-        <v>27426</v>
+        <v>25341</v>
       </c>
       <c r="I190">
-        <v>881</v>
+        <v>-2022</v>
       </c>
       <c r="J190">
-        <v>57409</v>
+        <v>49096</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191">
-        <v>412</v>
+        <v>242</v>
       </c>
       <c r="B191" t="s">
-        <v>2993</v>
+        <v>2789</v>
       </c>
       <c r="C191" t="s">
-        <v>3304</v>
+        <v>3294</v>
       </c>
       <c r="E191" t="s">
-        <v>2525</v>
+        <v>2550</v>
       </c>
       <c r="F191" t="s">
-        <v>2486</v>
+        <v>2474</v>
       </c>
       <c r="H191">
-        <v>28924</v>
+        <v>44730</v>
       </c>
       <c r="I191">
-        <v>5565</v>
+        <v>2843</v>
       </c>
       <c r="J191">
-        <v>54784</v>
+        <v>48936</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192">
-        <v>105</v>
+        <v>394</v>
       </c>
       <c r="B192" t="s">
-        <v>2612</v>
+        <v>2970</v>
       </c>
       <c r="C192" t="s">
-        <v>3305</v>
+        <v>3295</v>
       </c>
       <c r="E192" t="s">
-        <v>2465</v>
+        <v>2971</v>
       </c>
       <c r="F192" t="s">
-        <v>2529</v>
+        <v>2486</v>
       </c>
       <c r="H192">
-        <v>80635</v>
+        <v>29943</v>
       </c>
       <c r="I192">
-        <v>562</v>
+        <v>822</v>
       </c>
       <c r="J192">
-        <v>54742</v>
+        <v>48254</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>498</v>
+        <v>480</v>
       </c>
       <c r="B193" t="s">
-        <v>3086</v>
+        <v>3069</v>
       </c>
       <c r="C193" t="s">
-        <v>3306</v>
+        <v>3148</v>
       </c>
       <c r="E193" t="s">
-        <v>2471</v>
+        <v>2649</v>
       </c>
       <c r="F193" t="s">
-        <v>2591</v>
+        <v>2464</v>
       </c>
       <c r="H193">
-        <v>23785</v>
+        <v>24686</v>
       </c>
       <c r="I193">
-        <v>113</v>
+        <v>989</v>
       </c>
       <c r="J193">
-        <v>54100</v>
+        <v>48068</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>142</v>
+        <v>213</v>
       </c>
       <c r="B194" t="s">
-        <v>2665</v>
+        <v>2753</v>
       </c>
       <c r="C194" t="s">
-        <v>3307</v>
+        <v>3296</v>
       </c>
       <c r="E194" t="s">
         <v>2525</v>
       </c>
       <c r="F194" t="s">
-        <v>2486</v>
+        <v>2529</v>
       </c>
       <c r="H194">
-        <v>65960</v>
+        <v>49158</v>
       </c>
       <c r="I194">
-        <v>1295</v>
+        <v>2787</v>
       </c>
       <c r="J194">
-        <v>54090</v>
+        <v>47118</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="B195" t="s">
-        <v>2567</v>
+        <v>2661</v>
       </c>
       <c r="C195" t="s">
-        <v>3308</v>
+        <v>3297</v>
       </c>
       <c r="E195" t="s">
-        <v>2568</v>
+        <v>2662</v>
       </c>
       <c r="F195" t="s">
         <v>2464</v>
       </c>
       <c r="H195">
-        <v>100618</v>
+        <v>67206</v>
       </c>
       <c r="I195">
-        <v>11322</v>
+        <v>13832</v>
       </c>
       <c r="J195">
-        <v>50949</v>
+        <v>47044</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="B196" t="s">
-        <v>2824</v>
+        <v>2842</v>
       </c>
       <c r="C196" t="s">
-        <v>3147</v>
+        <v>3347</v>
       </c>
       <c r="E196" t="s">
-        <v>2825</v>
+        <v>2638</v>
       </c>
       <c r="F196" t="s">
         <v>2486</v>
       </c>
       <c r="H196">
-        <v>40594</v>
+        <v>39669</v>
       </c>
       <c r="I196">
-        <v>7650</v>
+        <v>2049</v>
       </c>
       <c r="J196">
-        <v>50214</v>
+        <v>45800</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197">
-        <v>473</v>
+        <v>269</v>
       </c>
       <c r="B197" t="s">
-        <v>3062</v>
+        <v>2821</v>
       </c>
       <c r="C197" t="s">
-        <v>3280</v>
+        <v>3298</v>
       </c>
       <c r="E197" t="s">
-        <v>2550</v>
+        <v>2822</v>
       </c>
       <c r="F197" t="s">
-        <v>2484</v>
+        <v>2486</v>
       </c>
       <c r="H197">
-        <v>25126</v>
+        <v>40668</v>
       </c>
       <c r="I197">
-        <v>858</v>
+        <v>7921</v>
       </c>
       <c r="J197">
-        <v>49421</v>
+        <v>44329</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198">
-        <v>470</v>
+        <v>429</v>
       </c>
       <c r="B198" t="s">
-        <v>3058</v>
+        <v>3012</v>
       </c>
       <c r="C198" t="s">
-        <v>3309</v>
+        <v>3299</v>
       </c>
       <c r="E198" t="s">
-        <v>2651</v>
+        <v>3013</v>
       </c>
       <c r="F198" t="s">
-        <v>2484</v>
+        <v>2474</v>
       </c>
       <c r="H198">
-        <v>25341</v>
+        <v>27593</v>
       </c>
       <c r="I198">
-        <v>-2022</v>
+        <v>1444</v>
       </c>
       <c r="J198">
-        <v>49096</v>
+        <v>44035</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>242</v>
+        <v>472</v>
       </c>
       <c r="B199" t="s">
-        <v>2789</v>
+        <v>3060</v>
       </c>
       <c r="C199" t="s">
-        <v>3310</v>
+        <v>3109</v>
       </c>
       <c r="E199" t="s">
-        <v>2550</v>
+        <v>3061</v>
       </c>
       <c r="F199" t="s">
-        <v>2474</v>
+        <v>2484</v>
       </c>
       <c r="H199">
-        <v>44730</v>
+        <v>25173</v>
       </c>
       <c r="I199">
-        <v>2843</v>
+        <v>8392</v>
       </c>
       <c r="J199">
-        <v>48936</v>
+        <v>43591</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>394</v>
+        <v>103</v>
       </c>
       <c r="B200" t="s">
-        <v>2970</v>
+        <v>2611</v>
       </c>
       <c r="C200" t="s">
-        <v>3311</v>
+        <v>3110</v>
       </c>
       <c r="E200" t="s">
-        <v>2971</v>
+        <v>2516</v>
       </c>
       <c r="F200" t="s">
         <v>2486</v>
       </c>
       <c r="H200">
-        <v>29943</v>
+        <v>81685</v>
       </c>
       <c r="I200">
-        <v>822</v>
+        <v>4182</v>
       </c>
       <c r="J200">
-        <v>48254</v>
+        <v>43316</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A201">
-        <v>480</v>
+        <v>263</v>
       </c>
       <c r="B201" t="s">
-        <v>3069</v>
+        <v>2812</v>
       </c>
       <c r="C201" t="s">
-        <v>3148</v>
+        <v>3149</v>
       </c>
       <c r="E201" t="s">
-        <v>2649</v>
+        <v>2525</v>
       </c>
       <c r="F201" t="s">
-        <v>2464</v>
+        <v>2486</v>
       </c>
       <c r="H201">
-        <v>24686</v>
+        <v>41836</v>
       </c>
       <c r="I201">
-        <v>989</v>
+        <v>2413</v>
       </c>
       <c r="J201">
-        <v>48068</v>
+        <v>40793</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A202">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B202" t="s">
-        <v>2753</v>
+        <v>2747</v>
       </c>
       <c r="C202" t="s">
-        <v>3312</v>
+        <v>3300</v>
       </c>
       <c r="E202" t="s">
-        <v>2525</v>
+        <v>2748</v>
       </c>
       <c r="F202" t="s">
-        <v>2529</v>
+        <v>2580</v>
       </c>
       <c r="H202">
-        <v>49158</v>
+        <v>50155</v>
       </c>
       <c r="I202">
-        <v>2787</v>
+        <v>6224</v>
       </c>
       <c r="J202">
-        <v>47118</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A203">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B203" t="s">
-        <v>2661</v>
+        <v>2641</v>
       </c>
       <c r="C203" t="s">
-        <v>3313</v>
+        <v>3301</v>
       </c>
       <c r="E203" t="s">
-        <v>2662</v>
+        <v>2525</v>
       </c>
       <c r="F203" t="s">
-        <v>2464</v>
+        <v>2529</v>
       </c>
       <c r="H203">
-        <v>67206</v>
+        <v>71254</v>
       </c>
       <c r="I203">
-        <v>13832</v>
+        <v>960</v>
       </c>
       <c r="J203">
-        <v>47044</v>
+        <v>38830</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="B204" t="s">
-        <v>2842</v>
+        <v>2758</v>
       </c>
       <c r="C204" t="s">
-        <v>3108</v>
+        <v>3302</v>
       </c>
       <c r="E204" t="s">
-        <v>2638</v>
+        <v>2759</v>
       </c>
       <c r="F204" t="s">
-        <v>2486</v>
+        <v>2464</v>
       </c>
       <c r="H204">
-        <v>39669</v>
+        <v>48410</v>
       </c>
       <c r="I204">
-        <v>2049</v>
+        <v>-1665</v>
       </c>
       <c r="J204">
-        <v>45800</v>
+        <v>37530</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="B205" t="s">
-        <v>41</v>
+        <v>2692</v>
       </c>
       <c r="C205" t="s">
-        <v>1076</v>
+        <v>3303</v>
       </c>
       <c r="E205" t="s">
-        <v>2589</v>
+        <v>2550</v>
       </c>
       <c r="F205" t="s">
-        <v>2464</v>
+        <v>2618</v>
       </c>
       <c r="H205">
-        <v>91417</v>
+        <v>61504</v>
       </c>
       <c r="I205">
-        <v>2524</v>
+        <v>600</v>
       </c>
       <c r="J205">
-        <v>45340</v>
+        <v>37225</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206">
-        <v>269</v>
+        <v>399</v>
       </c>
       <c r="B206" t="s">
-        <v>2821</v>
+        <v>2975</v>
       </c>
       <c r="C206" t="s">
-        <v>3314</v>
+        <v>3304</v>
       </c>
       <c r="E206" t="s">
-        <v>2822</v>
+        <v>2566</v>
       </c>
       <c r="F206" t="s">
         <v>2486</v>
       </c>
       <c r="H206">
-        <v>40668</v>
+        <v>29733</v>
       </c>
       <c r="I206">
-        <v>7921</v>
+        <v>1121</v>
       </c>
       <c r="J206">
-        <v>44329</v>
+        <v>37053</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A207">
-        <v>429</v>
+        <v>330</v>
       </c>
       <c r="B207" t="s">
-        <v>3012</v>
+        <v>2889</v>
       </c>
       <c r="C207" t="s">
-        <v>3315</v>
+        <v>3305</v>
       </c>
       <c r="E207" t="s">
-        <v>3013</v>
+        <v>2822</v>
       </c>
       <c r="F207" t="s">
-        <v>2474</v>
+        <v>2486</v>
       </c>
       <c r="H207">
-        <v>27593</v>
+        <v>35549</v>
       </c>
       <c r="I207">
-        <v>1444</v>
+        <v>6955</v>
       </c>
       <c r="J207">
-        <v>44035</v>
+        <v>36373</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208">
-        <v>472</v>
+        <v>396</v>
       </c>
       <c r="B208" t="s">
-        <v>3060</v>
+        <v>2973</v>
       </c>
       <c r="C208" t="s">
-        <v>3109</v>
+        <v>3353</v>
       </c>
       <c r="E208" t="s">
-        <v>3061</v>
+        <v>2525</v>
       </c>
       <c r="F208" t="s">
-        <v>2484</v>
+        <v>2486</v>
       </c>
       <c r="H208">
-        <v>25173</v>
+        <v>29853</v>
       </c>
       <c r="I208">
-        <v>8392</v>
+        <v>493</v>
       </c>
       <c r="J208">
-        <v>43591</v>
+        <v>36086</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A209">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="B209" t="s">
-        <v>2611</v>
+        <v>2703</v>
       </c>
       <c r="C209" t="s">
-        <v>3110</v>
+        <v>3306</v>
       </c>
       <c r="E209" t="s">
-        <v>2516</v>
+        <v>2704</v>
       </c>
       <c r="F209" t="s">
-        <v>2486</v>
+        <v>2571</v>
       </c>
       <c r="H209">
-        <v>81685</v>
+        <v>57161</v>
       </c>
       <c r="I209">
-        <v>4182</v>
+        <v>515</v>
       </c>
       <c r="J209">
-        <v>43316</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A210">
-        <v>263</v>
+        <v>329</v>
       </c>
       <c r="B210" t="s">
-        <v>2812</v>
+        <v>2888</v>
       </c>
       <c r="C210" t="s">
-        <v>3149</v>
+        <v>3307</v>
       </c>
       <c r="E210" t="s">
-        <v>2525</v>
+        <v>2550</v>
       </c>
       <c r="F210" t="s">
         <v>2486</v>
       </c>
       <c r="H210">
-        <v>41836</v>
+        <v>35574</v>
       </c>
       <c r="I210">
-        <v>2413</v>
+        <v>-346</v>
       </c>
       <c r="J210">
-        <v>40793</v>
+        <v>34828</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A211">
-        <v>209</v>
+        <v>119</v>
       </c>
       <c r="B211" t="s">
-        <v>2747</v>
+        <v>2634</v>
       </c>
       <c r="C211" t="s">
-        <v>3316</v>
+        <v>3351</v>
       </c>
       <c r="E211" t="s">
-        <v>2748</v>
+        <v>2635</v>
       </c>
       <c r="F211" t="s">
-        <v>2580</v>
+        <v>2464</v>
       </c>
       <c r="H211">
-        <v>50155</v>
+        <v>74196</v>
       </c>
       <c r="I211">
-        <v>6224</v>
+        <v>803</v>
       </c>
       <c r="J211">
-        <v>40000</v>
+        <v>34806</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212">
-        <v>125</v>
+        <v>290</v>
       </c>
       <c r="B212" t="s">
-        <v>2641</v>
+        <v>2843</v>
       </c>
       <c r="C212" t="s">
-        <v>3317</v>
+        <v>3111</v>
       </c>
       <c r="E212" t="s">
         <v>2525</v>
       </c>
       <c r="F212" t="s">
-        <v>2529</v>
+        <v>2486</v>
       </c>
       <c r="H212">
-        <v>71254</v>
+        <v>39363</v>
       </c>
       <c r="I212">
-        <v>960</v>
+        <v>2250</v>
       </c>
       <c r="J212">
-        <v>38830</v>
+        <v>33786</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A213">
-        <v>217</v>
+        <v>413</v>
       </c>
       <c r="B213" t="s">
-        <v>2758</v>
+        <v>2994</v>
       </c>
       <c r="C213" t="s">
-        <v>3318</v>
+        <v>3308</v>
       </c>
       <c r="E213" t="s">
-        <v>2759</v>
+        <v>2497</v>
       </c>
       <c r="F213" t="s">
-        <v>2464</v>
+        <v>2754</v>
       </c>
       <c r="H213">
-        <v>48410</v>
+        <v>28923</v>
       </c>
       <c r="I213">
-        <v>-1665</v>
+        <v>6293</v>
       </c>
       <c r="J213">
-        <v>37530</v>
+        <v>33558</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A214">
-        <v>162</v>
+        <v>384</v>
       </c>
       <c r="B214" t="s">
-        <v>2692</v>
+        <v>2957</v>
       </c>
       <c r="C214" t="s">
-        <v>3319</v>
+        <v>3150</v>
       </c>
       <c r="E214" t="s">
-        <v>2550</v>
+        <v>2651</v>
       </c>
       <c r="F214" t="s">
-        <v>2618</v>
+        <v>2464</v>
       </c>
       <c r="H214">
-        <v>61504</v>
+        <v>30978</v>
       </c>
       <c r="I214">
-        <v>600</v>
+        <v>-1349</v>
       </c>
       <c r="J214">
-        <v>37225</v>
+        <v>33539</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="B215" t="s">
-        <v>2975</v>
+        <v>3035</v>
       </c>
       <c r="C215" t="s">
-        <v>3320</v>
+        <v>3151</v>
       </c>
       <c r="E215" t="s">
-        <v>2566</v>
+        <v>3036</v>
       </c>
       <c r="F215" t="s">
-        <v>2486</v>
+        <v>2464</v>
       </c>
       <c r="H215">
-        <v>29733</v>
+        <v>26311</v>
       </c>
       <c r="I215">
-        <v>1121</v>
+        <v>2998</v>
       </c>
       <c r="J215">
-        <v>37053</v>
+        <v>33185</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A216">
-        <v>330</v>
+        <v>481</v>
       </c>
       <c r="B216" t="s">
-        <v>2889</v>
+        <v>3070</v>
       </c>
       <c r="C216" t="s">
-        <v>3321</v>
+        <v>3309</v>
       </c>
       <c r="E216" t="s">
-        <v>2822</v>
+        <v>2662</v>
       </c>
       <c r="F216" t="s">
-        <v>2486</v>
+        <v>2517</v>
       </c>
       <c r="H216">
-        <v>35549</v>
+        <v>24640</v>
       </c>
       <c r="I216">
-        <v>6955</v>
+        <v>3923</v>
       </c>
       <c r="J216">
-        <v>36373</v>
+        <v>31931</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217">
-        <v>396</v>
+        <v>446</v>
       </c>
       <c r="B217" t="s">
-        <v>2973</v>
+        <v>3031</v>
       </c>
       <c r="C217" t="s">
-        <v>3322</v>
+        <v>3310</v>
       </c>
       <c r="E217" t="s">
-        <v>2525</v>
+        <v>3032</v>
       </c>
       <c r="F217" t="s">
-        <v>2486</v>
+        <v>2999</v>
       </c>
       <c r="H217">
-        <v>29853</v>
+        <v>26530</v>
       </c>
       <c r="I217">
-        <v>493</v>
+        <v>846</v>
       </c>
       <c r="J217">
-        <v>36086</v>
+        <v>31576</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218">
-        <v>172</v>
+        <v>360</v>
       </c>
       <c r="B218" t="s">
-        <v>2703</v>
+        <v>2925</v>
       </c>
       <c r="C218" t="s">
-        <v>3323</v>
+        <v>3311</v>
       </c>
       <c r="E218" t="s">
-        <v>2704</v>
+        <v>2926</v>
       </c>
       <c r="F218" t="s">
-        <v>2571</v>
+        <v>2517</v>
       </c>
       <c r="H218">
-        <v>57161</v>
+        <v>33260</v>
       </c>
       <c r="I218">
-        <v>515</v>
+        <v>2756</v>
       </c>
       <c r="J218">
-        <v>35000</v>
+        <v>30925</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219">
-        <v>329</v>
+        <v>419</v>
       </c>
       <c r="B219" t="s">
-        <v>2888</v>
+        <v>3001</v>
       </c>
       <c r="C219" t="s">
-        <v>3324</v>
+        <v>3152</v>
       </c>
       <c r="E219" t="s">
-        <v>2550</v>
+        <v>3002</v>
       </c>
       <c r="F219" t="s">
-        <v>2486</v>
+        <v>2464</v>
       </c>
       <c r="H219">
-        <v>35574</v>
+        <v>28227</v>
       </c>
       <c r="I219">
-        <v>-346</v>
+        <v>352</v>
       </c>
       <c r="J219">
-        <v>34828</v>
+        <v>30848</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220">
-        <v>119</v>
+        <v>491</v>
       </c>
       <c r="B220" t="s">
-        <v>2634</v>
+        <v>3081</v>
       </c>
       <c r="C220" t="s">
-        <v>3325</v>
+        <v>3312</v>
       </c>
       <c r="E220" t="s">
-        <v>2635</v>
+        <v>3082</v>
       </c>
       <c r="F220" t="s">
         <v>2464</v>
       </c>
       <c r="H220">
-        <v>74196</v>
+        <v>24180</v>
       </c>
       <c r="I220">
-        <v>803</v>
+        <v>-1191</v>
       </c>
       <c r="J220">
-        <v>34806</v>
+        <v>30181</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221">
-        <v>290</v>
+        <v>212</v>
       </c>
       <c r="B221" t="s">
-        <v>2843</v>
+        <v>2751</v>
       </c>
       <c r="C221" t="s">
-        <v>3111</v>
+        <v>3313</v>
       </c>
       <c r="E221" t="s">
-        <v>2525</v>
+        <v>2752</v>
       </c>
       <c r="F221" t="s">
         <v>2486</v>
       </c>
       <c r="H221">
-        <v>39363</v>
+        <v>49371</v>
       </c>
       <c r="I221">
-        <v>2250</v>
+        <v>3170</v>
       </c>
       <c r="J221">
-        <v>33786</v>
+        <v>29400</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222">
-        <v>413</v>
+        <v>163</v>
       </c>
       <c r="B222" t="s">
-        <v>2994</v>
+        <v>2693</v>
       </c>
       <c r="C222" t="s">
-        <v>3326</v>
+        <v>3314</v>
       </c>
       <c r="E222" t="s">
-        <v>2497</v>
+        <v>2467</v>
       </c>
       <c r="F222" t="s">
-        <v>2754</v>
+        <v>2486</v>
       </c>
       <c r="H222">
-        <v>28923</v>
+        <v>61468</v>
       </c>
       <c r="I222">
-        <v>6293</v>
+        <v>1002</v>
       </c>
       <c r="J222">
-        <v>33558</v>
+        <v>28602</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223">
-        <v>384</v>
+        <v>267</v>
       </c>
       <c r="B223" t="s">
-        <v>2957</v>
+        <v>2818</v>
       </c>
       <c r="C223" t="s">
-        <v>3150</v>
+        <v>3315</v>
       </c>
       <c r="E223" t="s">
-        <v>2651</v>
+        <v>2525</v>
       </c>
       <c r="F223" t="s">
-        <v>2464</v>
+        <v>2517</v>
       </c>
       <c r="H223">
-        <v>30978</v>
+        <v>41593</v>
       </c>
       <c r="I223">
-        <v>-1349</v>
+        <v>3892</v>
       </c>
       <c r="J223">
-        <v>33539</v>
+        <v>28173</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224">
-        <v>449</v>
+        <v>283</v>
       </c>
       <c r="B224" t="s">
-        <v>3035</v>
+        <v>2835</v>
       </c>
       <c r="C224" t="s">
-        <v>3151</v>
+        <v>3316</v>
       </c>
       <c r="E224" t="s">
-        <v>3036</v>
+        <v>2764</v>
       </c>
       <c r="F224" t="s">
         <v>2464</v>
       </c>
       <c r="H224">
-        <v>26311</v>
+        <v>39838</v>
       </c>
       <c r="I224">
-        <v>2998</v>
+        <v>3086</v>
       </c>
       <c r="J224">
-        <v>33185</v>
+        <v>28021</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225">
-        <v>481</v>
+        <v>295</v>
       </c>
       <c r="B225" t="s">
-        <v>3070</v>
+        <v>2848</v>
       </c>
       <c r="C225" t="s">
-        <v>3327</v>
+        <v>3360</v>
       </c>
       <c r="E225" t="s">
-        <v>2662</v>
+        <v>2695</v>
       </c>
       <c r="F225" t="s">
-        <v>2517</v>
+        <v>2486</v>
       </c>
       <c r="H225">
-        <v>24640</v>
+        <v>38793</v>
       </c>
       <c r="I225">
-        <v>3923</v>
+        <v>2294</v>
       </c>
       <c r="J225">
-        <v>31931</v>
+        <v>28012</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B226" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
       <c r="C226" t="s">
-        <v>3328</v>
+        <v>3317</v>
       </c>
       <c r="E226" t="s">
-        <v>3032</v>
+        <v>2550</v>
       </c>
       <c r="F226" t="s">
-        <v>2999</v>
+        <v>2461</v>
       </c>
       <c r="H226">
-        <v>26530</v>
+        <v>26687</v>
       </c>
       <c r="I226">
-        <v>846</v>
+        <v>500</v>
       </c>
       <c r="J226">
-        <v>31576</v>
+        <v>27880</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227">
-        <v>360</v>
+        <v>130</v>
       </c>
       <c r="B227" t="s">
-        <v>2925</v>
+        <v>2648</v>
       </c>
       <c r="C227" t="s">
-        <v>3329</v>
+        <v>3318</v>
       </c>
       <c r="E227" t="s">
-        <v>2926</v>
+        <v>2649</v>
       </c>
       <c r="F227" t="s">
-        <v>2517</v>
+        <v>2464</v>
       </c>
       <c r="H227">
-        <v>33260</v>
+        <v>70648</v>
       </c>
       <c r="I227">
-        <v>2756</v>
+        <v>1504</v>
       </c>
       <c r="J227">
-        <v>30925</v>
+        <v>27429</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228">
-        <v>419</v>
+        <v>354</v>
       </c>
       <c r="B228" t="s">
-        <v>3001</v>
+        <v>2916</v>
       </c>
       <c r="C228" t="s">
-        <v>3152</v>
+        <v>3154</v>
       </c>
       <c r="E228" t="s">
-        <v>3002</v>
+        <v>2917</v>
       </c>
       <c r="F228" t="s">
         <v>2464</v>
       </c>
       <c r="H228">
-        <v>28227</v>
+        <v>33778</v>
       </c>
       <c r="I228">
-        <v>352</v>
+        <v>52</v>
       </c>
       <c r="J228">
-        <v>30848</v>
+        <v>27082</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229">
-        <v>491</v>
+        <v>375</v>
       </c>
       <c r="B229" t="s">
-        <v>3081</v>
+        <v>95</v>
       </c>
       <c r="C229" t="s">
-        <v>3330</v>
+        <v>3112</v>
       </c>
       <c r="E229" t="s">
-        <v>3082</v>
+        <v>2531</v>
       </c>
       <c r="F229" t="s">
-        <v>2464</v>
+        <v>2754</v>
       </c>
       <c r="H229">
-        <v>24180</v>
+        <v>31867</v>
       </c>
       <c r="I229">
-        <v>-1191</v>
+        <v>4514</v>
       </c>
       <c r="J229">
-        <v>30181</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230">
-        <v>212</v>
+        <v>92</v>
       </c>
       <c r="B230" t="s">
-        <v>2751</v>
+        <v>2597</v>
       </c>
       <c r="C230" t="s">
-        <v>3331</v>
+        <v>3161</v>
       </c>
       <c r="E230" t="s">
-        <v>2752</v>
+        <v>2525</v>
       </c>
       <c r="F230" t="s">
-        <v>2486</v>
+        <v>2464</v>
       </c>
       <c r="H230">
-        <v>49371</v>
+        <v>87779</v>
       </c>
       <c r="I230">
-        <v>3170</v>
+        <v>-2521</v>
       </c>
       <c r="J230">
-        <v>29400</v>
+        <v>26415</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231">
-        <v>435</v>
+        <v>123</v>
       </c>
       <c r="B231" t="s">
-        <v>94</v>
+        <v>2639</v>
       </c>
       <c r="C231" t="s">
-        <v>3332</v>
+        <v>3319</v>
       </c>
       <c r="E231" t="s">
-        <v>2592</v>
+        <v>2471</v>
       </c>
       <c r="F231" t="s">
-        <v>2464</v>
+        <v>2486</v>
       </c>
       <c r="H231">
-        <v>27429</v>
+        <v>71602</v>
       </c>
       <c r="I231">
-        <v>1623</v>
+        <v>2582</v>
       </c>
       <c r="J231">
-        <v>28993</v>
+        <v>26364</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="B232" t="s">
-        <v>2693</v>
+        <v>2598</v>
       </c>
       <c r="C232" t="s">
-        <v>3333</v>
+        <v>3357</v>
       </c>
       <c r="E232" t="s">
-        <v>2467</v>
+        <v>2599</v>
       </c>
       <c r="F232" t="s">
-        <v>2486</v>
+        <v>2464</v>
       </c>
       <c r="H232">
-        <v>61468</v>
+        <v>87299</v>
       </c>
       <c r="I232">
-        <v>1002</v>
+        <v>1718</v>
       </c>
       <c r="J232">
-        <v>28602</v>
+        <v>25986</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233">
-        <v>462</v>
+        <v>223</v>
       </c>
       <c r="B233" t="s">
-        <v>114</v>
+        <v>2766</v>
       </c>
       <c r="C233" t="s">
-        <v>3334</v>
+        <v>3320</v>
       </c>
       <c r="E233" t="s">
-        <v>2586</v>
+        <v>2767</v>
       </c>
       <c r="F233" t="s">
         <v>2464</v>
       </c>
       <c r="H233">
-        <v>25673</v>
+        <v>47639</v>
       </c>
       <c r="I233">
-        <v>1883</v>
+        <v>524</v>
       </c>
       <c r="J233">
-        <v>28344</v>
+        <v>25501</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234">
-        <v>267</v>
+        <v>298</v>
       </c>
       <c r="B234" t="s">
-        <v>2818</v>
+        <v>2850</v>
       </c>
       <c r="C234" t="s">
-        <v>3335</v>
+        <v>3155</v>
       </c>
       <c r="E234" t="s">
-        <v>2525</v>
+        <v>2851</v>
       </c>
       <c r="F234" t="s">
-        <v>2517</v>
+        <v>2486</v>
       </c>
       <c r="H234">
-        <v>41593</v>
+        <v>38601</v>
       </c>
       <c r="I234">
-        <v>3892</v>
+        <v>1201</v>
       </c>
       <c r="J234">
-        <v>28173</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235">
-        <v>283</v>
+        <v>158</v>
       </c>
       <c r="B235" t="s">
-        <v>2835</v>
+        <v>2687</v>
       </c>
       <c r="C235" t="s">
-        <v>3336</v>
+        <v>3363</v>
       </c>
       <c r="E235" t="s">
-        <v>2764</v>
+        <v>2688</v>
       </c>
       <c r="F235" t="s">
         <v>2464</v>
       </c>
       <c r="H235">
-        <v>39838</v>
+        <v>62803</v>
       </c>
       <c r="I235">
-        <v>3086</v>
+        <v>3853</v>
       </c>
       <c r="J235">
-        <v>28021</v>
+        <v>24930</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236">
-        <v>295</v>
+        <v>497</v>
       </c>
       <c r="B236" t="s">
-        <v>2848</v>
+        <v>3084</v>
       </c>
       <c r="C236" t="s">
-        <v>3153</v>
+        <v>3354</v>
       </c>
       <c r="E236" t="s">
-        <v>2695</v>
+        <v>3085</v>
       </c>
       <c r="F236" t="s">
-        <v>2486</v>
+        <v>2464</v>
       </c>
       <c r="H236">
-        <v>38793</v>
+        <v>23846</v>
       </c>
       <c r="I236">
-        <v>2294</v>
+        <v>509</v>
       </c>
       <c r="J236">
-        <v>28012</v>
+        <v>24031</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237">
-        <v>445</v>
+        <v>188</v>
       </c>
       <c r="B237" t="s">
-        <v>3030</v>
+        <v>2721</v>
       </c>
       <c r="C237" t="s">
-        <v>3337</v>
+        <v>3321</v>
       </c>
       <c r="E237" t="s">
-        <v>2550</v>
+        <v>2566</v>
       </c>
       <c r="F237" t="s">
-        <v>2461</v>
+        <v>2464</v>
       </c>
       <c r="H237">
-        <v>26687</v>
+        <v>54672</v>
       </c>
       <c r="I237">
-        <v>500</v>
+        <v>2138</v>
       </c>
       <c r="J237">
-        <v>27880</v>
+        <v>23354</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="B238" t="s">
-        <v>2648</v>
+        <v>2577</v>
       </c>
       <c r="C238" t="s">
-        <v>3338</v>
+        <v>3322</v>
       </c>
       <c r="E238" t="s">
-        <v>2649</v>
+        <v>2578</v>
       </c>
       <c r="F238" t="s">
         <v>2464</v>
       </c>
       <c r="H238">
-        <v>70648</v>
+        <v>98801</v>
       </c>
       <c r="I238">
-        <v>1504</v>
+        <v>3474</v>
       </c>
       <c r="J238">
-        <v>27429</v>
+        <v>22516</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239">
-        <v>354</v>
+        <v>230</v>
       </c>
       <c r="B239" t="s">
-        <v>2916</v>
+        <v>63</v>
       </c>
       <c r="C239" t="s">
-        <v>3154</v>
+        <v>3323</v>
       </c>
       <c r="E239" t="s">
-        <v>2917</v>
+        <v>2774</v>
       </c>
       <c r="F239" t="s">
-        <v>2464</v>
+        <v>2529</v>
       </c>
       <c r="H239">
-        <v>33778</v>
+        <v>46487</v>
       </c>
       <c r="I239">
-        <v>52</v>
+        <v>266</v>
       </c>
       <c r="J239">
-        <v>27082</v>
+        <v>21700</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="B240" t="s">
-        <v>95</v>
+        <v>2905</v>
       </c>
       <c r="C240" t="s">
-        <v>3112</v>
+        <v>3156</v>
       </c>
       <c r="E240" t="s">
-        <v>2531</v>
+        <v>2555</v>
       </c>
       <c r="F240" t="s">
-        <v>2754</v>
+        <v>2464</v>
       </c>
       <c r="H240">
-        <v>31867</v>
+        <v>34699</v>
       </c>
       <c r="I240">
-        <v>4514</v>
+        <v>561</v>
       </c>
       <c r="J240">
-        <v>27000</v>
+        <v>21568</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241">
-        <v>92</v>
+        <v>353</v>
       </c>
       <c r="B241" t="s">
-        <v>2597</v>
+        <v>2914</v>
       </c>
       <c r="C241" t="s">
-        <v>3339</v>
+        <v>3157</v>
       </c>
       <c r="E241" t="s">
-        <v>2525</v>
+        <v>2915</v>
       </c>
       <c r="F241" t="s">
         <v>2464</v>
       </c>
       <c r="H241">
-        <v>87779</v>
+        <v>33866</v>
       </c>
       <c r="I241">
-        <v>-2521</v>
+        <v>-1842</v>
       </c>
       <c r="J241">
-        <v>26415</v>
+        <v>20305</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242">
-        <v>123</v>
+        <v>467</v>
       </c>
       <c r="B242" t="s">
-        <v>2639</v>
+        <v>3055</v>
       </c>
       <c r="C242" t="s">
-        <v>3340</v>
+        <v>3324</v>
       </c>
       <c r="E242" t="s">
-        <v>2471</v>
+        <v>2583</v>
       </c>
       <c r="F242" t="s">
         <v>2486</v>
       </c>
       <c r="H242">
-        <v>71602</v>
+        <v>25433</v>
       </c>
       <c r="I242">
-        <v>2582</v>
+        <v>3450</v>
       </c>
       <c r="J242">
-        <v>26364</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243">
-        <v>93</v>
+        <v>205</v>
       </c>
       <c r="B243" t="s">
-        <v>2598</v>
+        <v>2741</v>
       </c>
       <c r="C243" t="s">
-        <v>3341</v>
+        <v>3325</v>
       </c>
       <c r="E243" t="s">
-        <v>2599</v>
+        <v>2742</v>
       </c>
       <c r="F243" t="s">
         <v>2464</v>
       </c>
       <c r="H243">
-        <v>87299</v>
+        <v>50932</v>
       </c>
       <c r="I243">
-        <v>1718</v>
+        <v>873</v>
       </c>
       <c r="J243">
-        <v>25986</v>
+        <v>19965</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244">
-        <v>415</v>
+        <v>292</v>
       </c>
       <c r="B244" t="s">
-        <v>98</v>
+        <v>2845</v>
       </c>
       <c r="C244" t="s">
-        <v>3342</v>
+        <v>3326</v>
       </c>
       <c r="E244" t="s">
-        <v>2531</v>
+        <v>2777</v>
       </c>
       <c r="F244" t="s">
-        <v>2754</v>
+        <v>2486</v>
       </c>
       <c r="H244">
-        <v>28774</v>
+        <v>39289</v>
       </c>
       <c r="I244">
-        <v>3827</v>
+        <v>1020</v>
       </c>
       <c r="J244">
-        <v>25600</v>
+        <v>19819</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245">
-        <v>223</v>
+        <v>146</v>
       </c>
       <c r="B245" t="s">
-        <v>2766</v>
+        <v>2669</v>
       </c>
       <c r="C245" t="s">
-        <v>3343</v>
+        <v>3327</v>
       </c>
       <c r="E245" t="s">
-        <v>2767</v>
+        <v>2670</v>
       </c>
       <c r="F245" t="s">
-        <v>2464</v>
+        <v>2529</v>
       </c>
       <c r="H245">
-        <v>47639</v>
+        <v>65300</v>
       </c>
       <c r="I245">
-        <v>524</v>
+        <v>178</v>
       </c>
       <c r="J245">
-        <v>25501</v>
+        <v>19373</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A246">
-        <v>298</v>
+        <v>247</v>
       </c>
       <c r="B246" t="s">
-        <v>2850</v>
+        <v>2795</v>
       </c>
       <c r="C246" t="s">
-        <v>3155</v>
+        <v>3158</v>
       </c>
       <c r="E246" t="s">
-        <v>2851</v>
+        <v>2603</v>
       </c>
       <c r="F246" t="s">
-        <v>2486</v>
+        <v>2560</v>
       </c>
       <c r="H246">
-        <v>38601</v>
+        <v>43611</v>
       </c>
       <c r="I246">
-        <v>1201</v>
+        <v>957</v>
       </c>
       <c r="J246">
-        <v>25500</v>
+        <v>17556</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247">
-        <v>158</v>
+        <v>331</v>
       </c>
       <c r="B247" t="s">
-        <v>2687</v>
+        <v>2890</v>
       </c>
       <c r="C247" t="s">
-        <v>3344</v>
+        <v>3328</v>
       </c>
       <c r="E247" t="s">
-        <v>2688</v>
+        <v>2891</v>
       </c>
       <c r="F247" t="s">
-        <v>2464</v>
+        <v>2486</v>
       </c>
       <c r="H247">
-        <v>62803</v>
+        <v>35545</v>
       </c>
       <c r="I247">
-        <v>3853</v>
+        <v>18</v>
       </c>
       <c r="J247">
-        <v>24930</v>
+        <v>16556</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248">
-        <v>497</v>
+        <v>316</v>
       </c>
       <c r="B248" t="s">
-        <v>3084</v>
+        <v>2872</v>
       </c>
       <c r="C248" t="s">
-        <v>3345</v>
+        <v>3329</v>
       </c>
       <c r="E248" t="s">
-        <v>3085</v>
+        <v>2873</v>
       </c>
       <c r="F248" t="s">
         <v>2464</v>
       </c>
       <c r="H248">
-        <v>23846</v>
+        <v>37000</v>
       </c>
       <c r="I248">
-        <v>509</v>
+        <v>-1113</v>
       </c>
       <c r="J248">
-        <v>24031</v>
+        <v>14787</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249">
-        <v>188</v>
+        <v>454</v>
       </c>
       <c r="B249" t="s">
-        <v>2721</v>
+        <v>3041</v>
       </c>
       <c r="C249" t="s">
-        <v>3346</v>
+        <v>3330</v>
       </c>
       <c r="E249" t="s">
-        <v>2566</v>
+        <v>2525</v>
       </c>
       <c r="F249" t="s">
-        <v>2464</v>
+        <v>2489</v>
       </c>
       <c r="H249">
-        <v>54672</v>
+        <v>26129</v>
       </c>
       <c r="I249">
-        <v>2138</v>
+        <v>215</v>
       </c>
       <c r="J249">
-        <v>23354</v>
+        <v>14637</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250">
-        <v>75</v>
+        <v>317</v>
       </c>
       <c r="B250" t="s">
-        <v>2577</v>
+        <v>2874</v>
       </c>
       <c r="C250" t="s">
-        <v>3347</v>
+        <v>3331</v>
       </c>
       <c r="E250" t="s">
-        <v>2578</v>
+        <v>2875</v>
       </c>
       <c r="F250" t="s">
         <v>2464</v>
       </c>
       <c r="H250">
-        <v>98801</v>
+        <v>36664</v>
       </c>
       <c r="I250">
-        <v>3474</v>
+        <v>2444</v>
       </c>
       <c r="J250">
-        <v>22516</v>
+        <v>13980</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A251">
-        <v>230</v>
+        <v>414</v>
       </c>
       <c r="B251" t="s">
-        <v>63</v>
+        <v>2995</v>
       </c>
       <c r="C251" t="s">
-        <v>3348</v>
+        <v>3332</v>
       </c>
       <c r="E251" t="s">
-        <v>2774</v>
+        <v>2626</v>
       </c>
       <c r="F251" t="s">
-        <v>2529</v>
+        <v>2464</v>
       </c>
       <c r="H251">
-        <v>46487</v>
+        <v>28774</v>
       </c>
       <c r="I251">
-        <v>266</v>
+        <v>527</v>
       </c>
       <c r="J251">
-        <v>21700</v>
+        <v>13973</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A252">
-        <v>342</v>
+        <v>280</v>
       </c>
       <c r="B252" t="s">
-        <v>2905</v>
+        <v>2832</v>
       </c>
       <c r="C252" t="s">
-        <v>3156</v>
+        <v>3159</v>
       </c>
       <c r="E252" t="s">
-        <v>2555</v>
+        <v>2688</v>
       </c>
       <c r="F252" t="s">
         <v>2464</v>
       </c>
       <c r="H252">
-        <v>34699</v>
+        <v>40019</v>
       </c>
       <c r="I252">
-        <v>561</v>
+        <v>786</v>
       </c>
       <c r="J252">
-        <v>21568</v>
+        <v>13570</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A253">
-        <v>353</v>
+        <v>406</v>
       </c>
       <c r="B253" t="s">
-        <v>2914</v>
+        <v>2984</v>
       </c>
       <c r="C253" t="s">
-        <v>3157</v>
+        <v>3355</v>
       </c>
       <c r="E253" t="s">
-        <v>2915</v>
+        <v>2985</v>
       </c>
       <c r="F253" t="s">
-        <v>2464</v>
+        <v>2486</v>
       </c>
       <c r="H253">
-        <v>33866</v>
+        <v>29520</v>
       </c>
       <c r="I253">
-        <v>-1842</v>
+        <v>255</v>
       </c>
       <c r="J253">
-        <v>20305</v>
+        <v>13563</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A254">
-        <v>467</v>
+        <v>236</v>
       </c>
       <c r="B254" t="s">
-        <v>3055</v>
+        <v>2782</v>
       </c>
       <c r="C254" t="s">
-        <v>3349</v>
+        <v>3333</v>
       </c>
       <c r="E254" t="s">
-        <v>2583</v>
+        <v>2677</v>
       </c>
       <c r="F254" t="s">
-        <v>2486</v>
+        <v>2580</v>
       </c>
       <c r="H254">
-        <v>25433</v>
+        <v>45609</v>
       </c>
       <c r="I254">
-        <v>3450</v>
+        <v>4174</v>
       </c>
       <c r="J254">
-        <v>20000</v>
+        <v>13100</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A255">
-        <v>205</v>
+        <v>313</v>
       </c>
       <c r="B255" t="s">
-        <v>2741</v>
+        <v>2867</v>
       </c>
       <c r="C255" t="s">
-        <v>3350</v>
+        <v>3113</v>
       </c>
       <c r="E255" t="s">
-        <v>2742</v>
+        <v>2638</v>
       </c>
       <c r="F255" t="s">
-        <v>2464</v>
+        <v>2486</v>
       </c>
       <c r="H255">
-        <v>50932</v>
+        <v>37347</v>
       </c>
       <c r="I255">
-        <v>873</v>
+        <v>3500</v>
       </c>
       <c r="J255">
-        <v>19965</v>
+        <v>12224</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>2845</v>
+        <v>83</v>
       </c>
       <c r="C256" t="s">
-        <v>3351</v>
+        <v>3334</v>
       </c>
       <c r="E256" t="s">
-        <v>2777</v>
+        <v>2804</v>
       </c>
       <c r="F256" t="s">
-        <v>2486</v>
+        <v>2571</v>
       </c>
       <c r="H256">
-        <v>39289</v>
+        <v>42664</v>
       </c>
       <c r="I256">
-        <v>1020</v>
+        <v>1081</v>
       </c>
       <c r="J256">
-        <v>19819</v>
+        <v>11824</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257">
-        <v>146</v>
+        <v>346</v>
       </c>
       <c r="B257" t="s">
-        <v>2669</v>
+        <v>2909</v>
       </c>
       <c r="C257" t="s">
-        <v>3352</v>
+        <v>3335</v>
       </c>
       <c r="E257" t="s">
-        <v>2670</v>
+        <v>2910</v>
       </c>
       <c r="F257" t="s">
-        <v>2529</v>
+        <v>2464</v>
       </c>
       <c r="H257">
-        <v>65300</v>
+        <v>34438</v>
       </c>
       <c r="I257">
-        <v>178</v>
+        <v>3752</v>
       </c>
       <c r="J257">
-        <v>19373</v>
+        <v>11069</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A258">
-        <v>247</v>
+        <v>351</v>
       </c>
       <c r="B258" t="s">
-        <v>2795</v>
+        <v>2913</v>
       </c>
       <c r="C258" t="s">
-        <v>3158</v>
+        <v>3336</v>
       </c>
       <c r="E258" t="s">
-        <v>2603</v>
+        <v>2875</v>
       </c>
       <c r="F258" t="s">
-        <v>2560</v>
+        <v>2464</v>
       </c>
       <c r="H258">
-        <v>43611</v>
+        <v>34088</v>
       </c>
       <c r="I258">
-        <v>957</v>
+        <v>1272</v>
       </c>
       <c r="J258">
-        <v>17556</v>
+        <v>8882</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="B259" t="s">
-        <v>2890</v>
+        <v>2860</v>
       </c>
       <c r="C259" t="s">
-        <v>3353</v>
+        <v>3337</v>
       </c>
       <c r="E259" t="s">
-        <v>2891</v>
+        <v>2525</v>
       </c>
       <c r="F259" t="s">
-        <v>2486</v>
+        <v>2464</v>
       </c>
       <c r="H259">
-        <v>35545</v>
+        <v>37926</v>
       </c>
       <c r="I259">
-        <v>18</v>
+        <v>-1254</v>
       </c>
       <c r="J259">
-        <v>16556</v>
+        <v>8829</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260">
-        <v>316</v>
+        <v>499</v>
       </c>
       <c r="B260" t="s">
-        <v>2872</v>
+        <v>3087</v>
       </c>
       <c r="C260" t="s">
-        <v>3354</v>
+        <v>3160</v>
       </c>
       <c r="E260" t="s">
-        <v>2873</v>
+        <v>2525</v>
       </c>
       <c r="F260" t="s">
         <v>2464</v>
       </c>
       <c r="H260">
-        <v>37000</v>
+        <v>23734</v>
       </c>
       <c r="I260">
-        <v>-1113</v>
+        <v>-707</v>
       </c>
       <c r="J260">
-        <v>14787</v>
+        <v>6359</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261">
-        <v>454</v>
+        <v>40</v>
       </c>
       <c r="B261" t="s">
-        <v>3041</v>
+        <v>2528</v>
       </c>
       <c r="C261" t="s">
-        <v>3355</v>
+        <v>3338</v>
       </c>
       <c r="E261" t="s">
-        <v>2525</v>
+        <v>2530</v>
       </c>
       <c r="F261" t="s">
-        <v>2489</v>
+        <v>2529</v>
       </c>
       <c r="H261">
-        <v>26129</v>
+        <v>127612</v>
       </c>
       <c r="I261">
-        <v>215</v>
+        <v>1039</v>
       </c>
       <c r="J261">
-        <v>14637</v>
+        <v>5326</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A262">
-        <v>317</v>
+        <v>166</v>
       </c>
       <c r="B262" t="s">
-        <v>2874</v>
+        <v>2697</v>
       </c>
       <c r="C262" t="s">
-        <v>3356</v>
+        <v>3339</v>
       </c>
       <c r="E262" t="s">
-        <v>2875</v>
+        <v>2497</v>
       </c>
       <c r="F262" t="s">
-        <v>2464</v>
+        <v>2486</v>
       </c>
       <c r="H262">
-        <v>36664</v>
+        <v>59648</v>
       </c>
       <c r="I262">
-        <v>2444</v>
+        <v>1432</v>
       </c>
       <c r="J262">
-        <v>13980</v>
+        <v>4705</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A263">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="B263" t="s">
-        <v>2995</v>
+        <v>3011</v>
       </c>
       <c r="C263" t="s">
-        <v>3357</v>
+        <v>3161</v>
       </c>
       <c r="E263" t="s">
-        <v>2626</v>
+        <v>2525</v>
       </c>
       <c r="F263" t="s">
         <v>2464</v>
       </c>
       <c r="H263">
-        <v>28774</v>
+        <v>27655</v>
       </c>
       <c r="I263">
-        <v>527</v>
+        <v>-132</v>
       </c>
       <c r="J263">
-        <v>13973</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A264">
-        <v>280</v>
+        <v>439</v>
       </c>
       <c r="B264" t="s">
-        <v>2832</v>
+        <v>3023</v>
       </c>
       <c r="C264" t="s">
-        <v>3159</v>
+        <v>3340</v>
       </c>
       <c r="E264" t="s">
-        <v>2688</v>
+        <v>2550</v>
       </c>
       <c r="F264" t="s">
         <v>2464</v>
       </c>
       <c r="H264">
-        <v>40019</v>
+        <v>27122</v>
       </c>
       <c r="I264">
-        <v>786</v>
+        <v>-273</v>
       </c>
       <c r="J264">
-        <v>13570</v>
+        <v>2796</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265">
-        <v>406</v>
+        <v>77</v>
       </c>
       <c r="B265" t="s">
-        <v>2984</v>
+        <v>2582</v>
       </c>
       <c r="C265" t="s">
-        <v>3358</v>
+        <v>3162</v>
       </c>
       <c r="E265" t="s">
-        <v>2985</v>
+        <v>2583</v>
       </c>
       <c r="F265" t="s">
-        <v>2486</v>
+        <v>2529</v>
       </c>
       <c r="H265">
-        <v>29520</v>
+        <v>97604</v>
       </c>
       <c r="I265">
-        <v>255</v>
+        <v>132</v>
       </c>
       <c r="J265">
-        <v>13563</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266">
-        <v>236</v>
+        <v>474</v>
       </c>
       <c r="B266" t="s">
-        <v>2782</v>
+        <v>3063</v>
       </c>
       <c r="C266" t="s">
-        <v>3359</v>
+        <v>3341</v>
       </c>
       <c r="E266" t="s">
-        <v>2677</v>
+        <v>2471</v>
       </c>
       <c r="F266" t="s">
-        <v>2580</v>
+        <v>2464</v>
       </c>
       <c r="H266">
-        <v>45609</v>
+        <v>25116</v>
       </c>
       <c r="I266">
-        <v>4174</v>
+        <v>17</v>
       </c>
       <c r="J266">
-        <v>13100</v>
+        <v>518</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A267">
-        <v>349</v>
+        <v>460</v>
       </c>
       <c r="B267" t="s">
-        <v>1108</v>
+        <v>3047</v>
       </c>
       <c r="C267" t="s">
-        <v>3360</v>
+        <v>3342</v>
       </c>
       <c r="E267" t="s">
-        <v>2531</v>
+        <v>3048</v>
       </c>
       <c r="F267" t="s">
-        <v>2486</v>
+        <v>2464</v>
       </c>
       <c r="H267">
-        <v>34230</v>
+        <v>25868</v>
       </c>
       <c r="I267">
-        <v>966</v>
+        <v>47</v>
       </c>
       <c r="J267">
-        <v>12322</v>
-      </c>
-    </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A268">
-        <v>313</v>
-      </c>
-      <c r="B268" t="s">
-        <v>2867</v>
-      </c>
-      <c r="C268" t="s">
-        <v>3113</v>
-      </c>
-      <c r="E268" t="s">
-        <v>2638</v>
-      </c>
-      <c r="F268" t="s">
-        <v>2486</v>
-      </c>
-      <c r="H268">
-        <v>37347</v>
-      </c>
-      <c r="I268">
-        <v>3500</v>
-      </c>
-      <c r="J268">
-        <v>12224</v>
-      </c>
-    </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A269">
-        <v>255</v>
-      </c>
-      <c r="B269" t="s">
-        <v>83</v>
-      </c>
-      <c r="C269" t="s">
-        <v>3361</v>
-      </c>
-      <c r="E269" t="s">
-        <v>2804</v>
-      </c>
-      <c r="F269" t="s">
-        <v>2571</v>
-      </c>
-      <c r="H269">
-        <v>42664</v>
-      </c>
-      <c r="I269">
-        <v>1081</v>
-      </c>
-      <c r="J269">
-        <v>11824</v>
-      </c>
-    </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A270">
-        <v>459</v>
-      </c>
-      <c r="B270" t="s">
-        <v>223</v>
-      </c>
-      <c r="C270" t="s">
-        <v>3362</v>
-      </c>
-      <c r="E270" t="s">
-        <v>2501</v>
-      </c>
-      <c r="F270" t="s">
-        <v>2464</v>
-      </c>
-      <c r="H270">
-        <v>25898</v>
-      </c>
-      <c r="I270">
-        <v>616</v>
-      </c>
-      <c r="J270">
-        <v>11700</v>
-      </c>
-    </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A271">
-        <v>346</v>
-      </c>
-      <c r="B271" t="s">
-        <v>2909</v>
-      </c>
-      <c r="C271" t="s">
-        <v>3363</v>
-      </c>
-      <c r="E271" t="s">
-        <v>2910</v>
-      </c>
-      <c r="F271" t="s">
-        <v>2464</v>
-      </c>
-      <c r="H271">
-        <v>34438</v>
-      </c>
-      <c r="I271">
-        <v>3752</v>
-      </c>
-      <c r="J271">
-        <v>11069</v>
-      </c>
-    </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A272">
-        <v>351</v>
-      </c>
-      <c r="B272" t="s">
-        <v>2913</v>
-      </c>
-      <c r="C272" t="s">
-        <v>3364</v>
-      </c>
-      <c r="E272" t="s">
-        <v>2875</v>
-      </c>
-      <c r="F272" t="s">
-        <v>2464</v>
-      </c>
-      <c r="H272">
-        <v>34088</v>
-      </c>
-      <c r="I272">
-        <v>1272</v>
-      </c>
-      <c r="J272">
-        <v>8882</v>
-      </c>
-    </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A273">
-        <v>307</v>
-      </c>
-      <c r="B273" t="s">
-        <v>2860</v>
-      </c>
-      <c r="C273" t="s">
-        <v>3365</v>
-      </c>
-      <c r="E273" t="s">
-        <v>2525</v>
-      </c>
-      <c r="F273" t="s">
-        <v>2464</v>
-      </c>
-      <c r="H273">
-        <v>37926</v>
-      </c>
-      <c r="I273">
-        <v>-1254</v>
-      </c>
-      <c r="J273">
-        <v>8829</v>
-      </c>
-    </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A274">
-        <v>478</v>
-      </c>
-      <c r="B274" t="s">
-        <v>85</v>
-      </c>
-      <c r="C274" t="s">
-        <v>3114</v>
-      </c>
-      <c r="E274" t="s">
-        <v>3067</v>
-      </c>
-      <c r="F274" t="s">
-        <v>2489</v>
-      </c>
-      <c r="H274">
-        <v>24890</v>
-      </c>
-      <c r="I274">
-        <v>12101</v>
-      </c>
-      <c r="J274">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A275">
-        <v>499</v>
-      </c>
-      <c r="B275" t="s">
-        <v>3087</v>
-      </c>
-      <c r="C275" t="s">
-        <v>3160</v>
-      </c>
-      <c r="E275" t="s">
-        <v>2525</v>
-      </c>
-      <c r="F275" t="s">
-        <v>2464</v>
-      </c>
-      <c r="H275">
-        <v>23734</v>
-      </c>
-      <c r="I275">
-        <v>-707</v>
-      </c>
-      <c r="J275">
-        <v>6359</v>
-      </c>
-    </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A276">
-        <v>279</v>
-      </c>
-      <c r="B276" t="s">
-        <v>97</v>
-      </c>
-      <c r="C276" t="s">
-        <v>3366</v>
-      </c>
-      <c r="E276" t="s">
-        <v>2519</v>
-      </c>
-      <c r="F276" t="s">
-        <v>2464</v>
-      </c>
-      <c r="H276">
-        <v>40052</v>
-      </c>
-      <c r="I276">
-        <v>843</v>
-      </c>
-      <c r="J276">
-        <v>5641</v>
-      </c>
-    </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A277">
-        <v>40</v>
-      </c>
-      <c r="B277" t="s">
-        <v>2528</v>
-      </c>
-      <c r="C277" t="s">
-        <v>3367</v>
-      </c>
-      <c r="E277" t="s">
-        <v>2530</v>
-      </c>
-      <c r="F277" t="s">
-        <v>2529</v>
-      </c>
-      <c r="H277">
-        <v>127612</v>
-      </c>
-      <c r="I277">
-        <v>1039</v>
-      </c>
-      <c r="J277">
-        <v>5326</v>
-      </c>
-    </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A278">
-        <v>166</v>
-      </c>
-      <c r="B278" t="s">
-        <v>2697</v>
-      </c>
-      <c r="C278" t="s">
-        <v>3368</v>
-      </c>
-      <c r="E278" t="s">
-        <v>2497</v>
-      </c>
-      <c r="F278" t="s">
-        <v>2486</v>
-      </c>
-      <c r="H278">
-        <v>59648</v>
-      </c>
-      <c r="I278">
-        <v>1432</v>
-      </c>
-      <c r="J278">
-        <v>4705</v>
-      </c>
-    </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A279">
-        <v>428</v>
-      </c>
-      <c r="B279" t="s">
-        <v>3011</v>
-      </c>
-      <c r="C279" t="s">
-        <v>3161</v>
-      </c>
-      <c r="E279" t="s">
-        <v>2525</v>
-      </c>
-      <c r="F279" t="s">
-        <v>2464</v>
-      </c>
-      <c r="H279">
-        <v>27655</v>
-      </c>
-      <c r="I279">
-        <v>-132</v>
-      </c>
-      <c r="J279">
-        <v>3512</v>
-      </c>
-    </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A280">
-        <v>439</v>
-      </c>
-      <c r="B280" t="s">
-        <v>3023</v>
-      </c>
-      <c r="C280" t="s">
-        <v>3369</v>
-      </c>
-      <c r="E280" t="s">
-        <v>2550</v>
-      </c>
-      <c r="F280" t="s">
-        <v>2464</v>
-      </c>
-      <c r="H280">
-        <v>27122</v>
-      </c>
-      <c r="I280">
-        <v>-273</v>
-      </c>
-      <c r="J280">
-        <v>2796</v>
-      </c>
-    </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A281">
-        <v>77</v>
-      </c>
-      <c r="B281" t="s">
-        <v>2582</v>
-      </c>
-      <c r="C281" t="s">
-        <v>3162</v>
-      </c>
-      <c r="E281" t="s">
-        <v>2583</v>
-      </c>
-      <c r="F281" t="s">
-        <v>2529</v>
-      </c>
-      <c r="H281">
-        <v>97604</v>
-      </c>
-      <c r="I281">
-        <v>132</v>
-      </c>
-      <c r="J281">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A282">
-        <v>474</v>
-      </c>
-      <c r="B282" t="s">
-        <v>3063</v>
-      </c>
-      <c r="C282" t="s">
-        <v>3370</v>
-      </c>
-      <c r="E282" t="s">
-        <v>2471</v>
-      </c>
-      <c r="F282" t="s">
-        <v>2464</v>
-      </c>
-      <c r="H282">
-        <v>25116</v>
-      </c>
-      <c r="I282">
-        <v>17</v>
-      </c>
-      <c r="J282">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A283">
-        <v>460</v>
-      </c>
-      <c r="B283" t="s">
-        <v>3047</v>
-      </c>
-      <c r="C283" t="s">
-        <v>3371</v>
-      </c>
-      <c r="E283" t="s">
-        <v>3048</v>
-      </c>
-      <c r="F283" t="s">
-        <v>2464</v>
-      </c>
-      <c r="H283">
-        <v>25868</v>
-      </c>
-      <c r="I283">
-        <v>47</v>
-      </c>
-      <c r="J283">
         <v>179</v>
       </c>
     </row>
